--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="241">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -357,33 +357,6 @@
     <t>Эрва шерстистая трава 30г</t>
   </si>
   <si>
-    <t>"Лён обыкновенный" (ТМ "Азбука здоровья")(БАД) 100г</t>
-  </si>
-  <si>
-    <t>Фиточай "Укроп" (ТМ "Азбука здоровья")(БАД) 50г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Дивный вечер" (Фиточай "Улучшение пищеварения",ТМ "Азбука здоровья") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Мята" ("Фиточай мятный",ТМ "Азбука здоровья") (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Опалиховский"(Фиточай при простуде,ТМ "Азбука здоровья") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Ромашковый" (ТМ "Азбука здоровья) (БАД)20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Фитосбор №1" ("Фиточай с толокнянкой",ТМ "Азбука здоровья") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Фитосбор №2" ("Фиточай успокаивающий",ТМ "Азбука здоровья") (БАД)20*2.0г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Шиповник" ("Фиточай с шиповником",ТМ "Азбука здоровья") (БАД)20*2.0г</t>
-  </si>
-  <si>
     <t>Стоматофит 100 мл</t>
   </si>
   <si>
@@ -472,33 +445,6 @@
   </si>
   <si>
     <t>4601498007425</t>
-  </si>
-  <si>
-    <t>4601498007678</t>
-  </si>
-  <si>
-    <t>4601498007685</t>
-  </si>
-  <si>
-    <t>4601498007616</t>
-  </si>
-  <si>
-    <t>4601498007623</t>
-  </si>
-  <si>
-    <t>4601498007630</t>
-  </si>
-  <si>
-    <t>4601498007586</t>
-  </si>
-  <si>
-    <t>4601498007593</t>
-  </si>
-  <si>
-    <t>4601498007609</t>
-  </si>
-  <si>
-    <t>4601498007647</t>
   </si>
   <si>
     <t>4601498006329</t>
@@ -1624,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,19 +1587,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D1" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1664,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1681,13 +1627,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1698,13 +1644,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1715,13 +1661,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1732,13 +1678,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1749,13 +1695,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1766,13 +1712,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1783,13 +1729,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1800,13 +1746,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1817,13 +1763,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1834,13 +1780,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1851,13 +1797,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1868,13 +1814,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E14" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1885,13 +1831,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E15" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1902,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D16" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1919,13 +1865,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D17" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1936,13 +1882,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1953,13 +1899,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1970,13 +1916,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D20" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1987,13 +1933,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2004,13 +1950,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D22" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2021,13 +1967,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2038,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2055,13 +2001,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E25" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2072,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2089,13 +2035,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2106,13 +2052,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2123,13 +2069,13 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D29" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2140,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2157,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E31" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,13 +2120,13 @@
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2191,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D33" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E33" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2208,13 +2154,13 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2225,13 +2171,13 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D35" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2242,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2259,13 +2205,13 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2276,13 +2222,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D38" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2293,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2310,13 +2256,13 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2327,13 +2273,13 @@
         <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2344,13 +2290,13 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" t="s">
+        <v>128</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D42" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2361,13 +2307,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D43" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2378,13 +2324,13 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D44" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2395,13 +2341,13 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,13 +2358,13 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2429,13 +2375,13 @@
         <v>44</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -2446,13 +2392,13 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D48" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -2463,13 +2409,13 @@
         <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2480,13 +2426,13 @@
         <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2497,13 +2443,13 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -2514,13 +2460,13 @@
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,13 +2477,13 @@
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -2548,13 +2494,13 @@
         <v>53</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,13 +2511,13 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D55" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2582,13 +2528,13 @@
         <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2599,13 +2545,13 @@
         <v>41</v>
       </c>
       <c r="C57" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D57" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -2616,13 +2562,13 @@
         <v>41</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D58" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -2633,13 +2579,13 @@
         <v>41</v>
       </c>
       <c r="C59" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D59" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2650,13 +2596,13 @@
         <v>44</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -2667,13 +2613,13 @@
         <v>44</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2684,13 +2630,13 @@
         <v>44</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D62" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -2701,13 +2647,13 @@
         <v>44</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D63" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -2718,13 +2664,13 @@
         <v>53</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,13 +2681,13 @@
         <v>53</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D65" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2752,13 +2698,13 @@
         <v>53</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2769,13 +2715,13 @@
         <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D67" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2786,13 +2732,13 @@
         <v>44</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D68" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2803,13 +2749,13 @@
         <v>44</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -2820,13 +2766,13 @@
         <v>53</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2837,13 +2783,13 @@
         <v>44</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -2854,13 +2800,13 @@
         <v>44</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -2871,13 +2817,13 @@
         <v>44</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D73" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -2888,13 +2834,13 @@
         <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D74" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -2905,13 +2851,13 @@
         <v>53</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D75" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -2922,13 +2868,13 @@
         <v>44</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D76" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -2939,13 +2885,13 @@
         <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -2956,13 +2902,13 @@
         <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -2973,13 +2919,13 @@
         <v>44</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D79" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -2990,13 +2936,13 @@
         <v>44</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3007,13 +2953,13 @@
         <v>44</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3024,13 +2970,13 @@
         <v>44</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D82" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3041,13 +2987,13 @@
         <v>44</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3058,13 +3004,13 @@
         <v>44</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3075,13 +3021,13 @@
         <v>44</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3092,13 +3038,13 @@
         <v>44</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D86" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3109,13 +3055,13 @@
         <v>44</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D87" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3126,13 +3072,13 @@
         <v>44</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D88" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,13 +3089,13 @@
         <v>44</v>
       </c>
       <c r="C89" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D89" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3160,13 +3106,13 @@
         <v>44</v>
       </c>
       <c r="C90" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D90" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -3177,13 +3123,13 @@
         <v>53</v>
       </c>
       <c r="C91" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -3194,13 +3140,13 @@
         <v>44</v>
       </c>
       <c r="C92" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D92" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3211,13 +3157,13 @@
         <v>41</v>
       </c>
       <c r="C93" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3228,13 +3174,13 @@
         <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3245,13 +3191,13 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D95" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E95" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -3262,13 +3208,13 @@
         <v>44</v>
       </c>
       <c r="C96" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D96" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -3279,13 +3225,13 @@
         <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E97" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3296,13 +3242,13 @@
         <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D98" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3313,13 +3259,13 @@
         <v>44</v>
       </c>
       <c r="C99" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D99" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -3330,13 +3276,13 @@
         <v>1</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D100" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -3347,13 +3293,13 @@
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -3364,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="C102" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D102" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E102" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -3381,13 +3327,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D103" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -3398,13 +3344,13 @@
         <v>1</v>
       </c>
       <c r="C104" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -3415,13 +3361,13 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -3432,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -3449,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -3463,16 +3409,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C108" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>150</v>
+        <v>126</v>
+      </c>
+      <c r="E108" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -3480,16 +3426,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>1</v>
+        <v>116</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D109" t="s">
-        <v>136</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>151</v>
+        <v>126</v>
+      </c>
+      <c r="E109" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -3497,16 +3443,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D110" t="s">
-        <v>136</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
+      </c>
+      <c r="E110" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,16 +3460,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C111" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D111" t="s">
-        <v>136</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>153</v>
+        <v>126</v>
+      </c>
+      <c r="E111" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3531,169 +3477,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D112" t="s">
-        <v>136</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" t="s">
-        <v>44</v>
-      </c>
-      <c r="C113" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" t="s">
-        <v>136</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" t="s">
-        <v>130</v>
-      </c>
-      <c r="D114" t="s">
-        <v>136</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" t="s">
-        <v>130</v>
-      </c>
-      <c r="D115" t="s">
-        <v>136</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" t="s">
-        <v>44</v>
-      </c>
-      <c r="C116" t="s">
-        <v>130</v>
-      </c>
-      <c r="D116" t="s">
-        <v>136</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" t="s">
-        <v>125</v>
-      </c>
-      <c r="C117" t="s">
-        <v>133</v>
-      </c>
-      <c r="D117" t="s">
-        <v>135</v>
-      </c>
-      <c r="E117" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" t="s">
-        <v>125</v>
-      </c>
-      <c r="C118" t="s">
-        <v>133</v>
-      </c>
-      <c r="D118" t="s">
-        <v>135</v>
-      </c>
-      <c r="E118" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" t="s">
-        <v>125</v>
-      </c>
-      <c r="C119" t="s">
-        <v>133</v>
-      </c>
-      <c r="D119" t="s">
-        <v>135</v>
-      </c>
-      <c r="E119" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" t="s">
-        <v>133</v>
-      </c>
-      <c r="D120" t="s">
-        <v>135</v>
-      </c>
-      <c r="E120" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" t="s">
-        <v>125</v>
-      </c>
-      <c r="C121" t="s">
-        <v>133</v>
-      </c>
-      <c r="D121" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" t="s">
-        <v>258</v>
+        <v>126</v>
+      </c>
+      <c r="E112" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="243">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -745,6 +745,12 @@
   </si>
   <si>
     <t>5903473000896</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>4601498005872</t>
   </si>
 </sst>
 </file>
@@ -1246,9 +1252,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1570,10 +1579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,11 +2598,11 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
+      <c r="A60" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="B60" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C60" t="s">
         <v>121</v>
@@ -2601,13 +2610,13 @@
       <c r="D60" t="s">
         <v>126</v>
       </c>
-      <c r="E60" t="s">
-        <v>188</v>
+      <c r="E60" s="1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
@@ -2619,12 +2628,12 @@
         <v>126</v>
       </c>
       <c r="E61" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -2636,12 +2645,12 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -2653,15 +2662,15 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B64" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
         <v>121</v>
@@ -2670,12 +2679,12 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B65" t="s">
         <v>53</v>
@@ -2687,12 +2696,12 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
         <v>53</v>
@@ -2704,15 +2713,15 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C67" t="s">
         <v>121</v>
@@ -2721,12 +2730,12 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
         <v>44</v>
@@ -2738,12 +2747,12 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
@@ -2755,15 +2764,15 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C70" t="s">
         <v>121</v>
@@ -2772,15 +2781,15 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
@@ -2789,12 +2798,12 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B72" t="s">
         <v>44</v>
@@ -2806,12 +2815,12 @@
         <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -2823,12 +2832,12 @@
         <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -2840,15 +2849,15 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
         <v>121</v>
@@ -2857,15 +2866,15 @@
         <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C76" t="s">
         <v>121</v>
@@ -2874,12 +2883,12 @@
         <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
         <v>44</v>
@@ -2891,12 +2900,12 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -2908,12 +2917,12 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -2925,12 +2934,12 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -2942,12 +2951,12 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -2959,12 +2968,12 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -2976,12 +2985,12 @@
         <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -2993,12 +3002,12 @@
         <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -3010,12 +3019,12 @@
         <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -3027,12 +3036,12 @@
         <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -3044,12 +3053,12 @@
         <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -3061,12 +3070,12 @@
         <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -3078,12 +3087,12 @@
         <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
@@ -3095,12 +3104,12 @@
         <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
@@ -3112,15 +3121,15 @@
         <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B91" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C91" t="s">
         <v>121</v>
@@ -3129,15 +3138,15 @@
         <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C92" t="s">
         <v>121</v>
@@ -3146,46 +3155,46 @@
         <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B95" t="s">
         <v>44</v>
@@ -3197,12 +3206,12 @@
         <v>126</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
@@ -3214,12 +3223,12 @@
         <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
@@ -3231,12 +3240,12 @@
         <v>126</v>
       </c>
       <c r="E97" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
@@ -3248,12 +3257,12 @@
         <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B99" t="s">
         <v>44</v>
@@ -3265,29 +3274,29 @@
         <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C100" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D100" t="s">
         <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B101" t="s">
         <v>1</v>
@@ -3299,12 +3308,12 @@
         <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -3316,12 +3325,12 @@
         <v>126</v>
       </c>
       <c r="E102" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -3333,12 +3342,12 @@
         <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -3350,12 +3359,12 @@
         <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -3367,12 +3376,12 @@
         <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -3384,12 +3393,12 @@
         <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -3401,29 +3410,29 @@
         <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D108" t="s">
         <v>126</v>
       </c>
       <c r="E108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" t="s">
         <v>116</v>
@@ -3435,12 +3444,12 @@
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
@@ -3452,12 +3461,12 @@
         <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -3469,12 +3478,12 @@
         <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
@@ -3486,6 +3495,23 @@
         <v>126</v>
       </c>
       <c r="E112" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>116</v>
+      </c>
+      <c r="C113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D113" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" t="s">
         <v>240</v>
       </c>
     </row>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="245">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -751,6 +751,12 @@
   </si>
   <si>
     <t>4601498005872</t>
+  </si>
+  <si>
+    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>4601498007500</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2293,24 +2299,24 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
         <v>128</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>130</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
@@ -2322,12 +2328,12 @@
         <v>128</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -2339,12 +2345,12 @@
         <v>128</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>44</v>
@@ -2356,12 +2362,12 @@
         <v>128</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" t="s">
         <v>44</v>
@@ -2373,12 +2379,12 @@
         <v>128</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
         <v>44</v>
@@ -2390,12 +2396,12 @@
         <v>128</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
         <v>44</v>
@@ -2407,12 +2413,12 @@
         <v>128</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
         <v>44</v>
@@ -2421,18 +2427,18 @@
         <v>121</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
-      </c>
-      <c r="E49" t="s">
-        <v>181</v>
+        <v>128</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>121</v>
@@ -2441,15 +2447,15 @@
         <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C51" t="s">
         <v>121</v>
@@ -2458,12 +2464,12 @@
         <v>126</v>
       </c>
       <c r="E51" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
@@ -2475,12 +2481,12 @@
         <v>126</v>
       </c>
       <c r="E52" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
@@ -2492,15 +2498,15 @@
         <v>126</v>
       </c>
       <c r="E53" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C54" t="s">
         <v>121</v>
@@ -2509,12 +2515,12 @@
         <v>126</v>
       </c>
       <c r="E54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s">
         <v>53</v>
@@ -2526,29 +2532,29 @@
         <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B57" t="s">
         <v>41</v>
@@ -2560,12 +2566,12 @@
         <v>128</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -2577,12 +2583,12 @@
         <v>128</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
         <v>41</v>
@@ -2594,46 +2600,46 @@
         <v>128</v>
       </c>
       <c r="E59" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" t="s">
+        <v>128</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>53</v>
       </c>
-      <c r="C60" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" t="s">
-        <v>126</v>
-      </c>
-      <c r="E60" s="1" t="s">
+      <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="s">
-        <v>44</v>
-      </c>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B62" t="s">
         <v>44</v>
@@ -2645,12 +2651,12 @@
         <v>126</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B63" t="s">
         <v>44</v>
@@ -2662,12 +2668,12 @@
         <v>126</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>44</v>
@@ -2679,15 +2685,15 @@
         <v>126</v>
       </c>
       <c r="E64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C65" t="s">
         <v>121</v>
@@ -2696,12 +2702,12 @@
         <v>126</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B66" t="s">
         <v>53</v>
@@ -2713,12 +2719,12 @@
         <v>126</v>
       </c>
       <c r="E66" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B67" t="s">
         <v>53</v>
@@ -2730,15 +2736,15 @@
         <v>126</v>
       </c>
       <c r="E67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C68" t="s">
         <v>121</v>
@@ -2747,12 +2753,12 @@
         <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
         <v>44</v>
@@ -2764,12 +2770,12 @@
         <v>126</v>
       </c>
       <c r="E69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B70" t="s">
         <v>44</v>
@@ -2781,15 +2787,15 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C71" t="s">
         <v>121</v>
@@ -2798,15 +2804,15 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B72" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C72" t="s">
         <v>121</v>
@@ -2815,12 +2821,12 @@
         <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
         <v>44</v>
@@ -2832,12 +2838,12 @@
         <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" t="s">
         <v>44</v>
@@ -2849,12 +2855,12 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" t="s">
         <v>44</v>
@@ -2866,15 +2872,15 @@
         <v>126</v>
       </c>
       <c r="E75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C76" t="s">
         <v>121</v>
@@ -2883,15 +2889,15 @@
         <v>126</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C77" t="s">
         <v>121</v>
@@ -2900,12 +2906,12 @@
         <v>126</v>
       </c>
       <c r="E77" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B78" t="s">
         <v>44</v>
@@ -2917,12 +2923,12 @@
         <v>126</v>
       </c>
       <c r="E78" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" t="s">
         <v>44</v>
@@ -2934,12 +2940,12 @@
         <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
         <v>44</v>
@@ -2951,12 +2957,12 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
         <v>44</v>
@@ -2968,12 +2974,12 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" t="s">
         <v>44</v>
@@ -2985,12 +2991,12 @@
         <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B83" t="s">
         <v>44</v>
@@ -3002,12 +3008,12 @@
         <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B84" t="s">
         <v>44</v>
@@ -3019,12 +3025,12 @@
         <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
         <v>44</v>
@@ -3036,12 +3042,12 @@
         <v>126</v>
       </c>
       <c r="E85" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B86" t="s">
         <v>44</v>
@@ -3053,12 +3059,12 @@
         <v>126</v>
       </c>
       <c r="E86" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
         <v>44</v>
@@ -3070,12 +3076,12 @@
         <v>126</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B88" t="s">
         <v>44</v>
@@ -3087,12 +3093,12 @@
         <v>126</v>
       </c>
       <c r="E88" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
         <v>44</v>
@@ -3104,12 +3110,12 @@
         <v>126</v>
       </c>
       <c r="E89" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
         <v>44</v>
@@ -3121,12 +3127,12 @@
         <v>126</v>
       </c>
       <c r="E90" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
         <v>44</v>
@@ -3138,15 +3144,15 @@
         <v>126</v>
       </c>
       <c r="E91" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B92" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C92" t="s">
         <v>121</v>
@@ -3155,15 +3161,15 @@
         <v>126</v>
       </c>
       <c r="E92" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C93" t="s">
         <v>121</v>
@@ -3172,46 +3178,46 @@
         <v>126</v>
       </c>
       <c r="E93" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B94" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E94" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B95" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C95" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E95" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" t="s">
         <v>44</v>
@@ -3223,12 +3229,12 @@
         <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B97" t="s">
         <v>44</v>
@@ -3240,12 +3246,12 @@
         <v>126</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B98" t="s">
         <v>44</v>
@@ -3257,12 +3263,12 @@
         <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B99" t="s">
         <v>44</v>
@@ -3274,12 +3280,12 @@
         <v>126</v>
       </c>
       <c r="E99" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" t="s">
         <v>44</v>
@@ -3291,29 +3297,29 @@
         <v>126</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B101" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D101" t="s">
         <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" t="s">
         <v>1</v>
@@ -3325,12 +3331,12 @@
         <v>126</v>
       </c>
       <c r="E102" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" t="s">
         <v>1</v>
@@ -3342,12 +3348,12 @@
         <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" t="s">
         <v>1</v>
@@ -3359,12 +3365,12 @@
         <v>126</v>
       </c>
       <c r="E104" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" t="s">
         <v>1</v>
@@ -3376,12 +3382,12 @@
         <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" t="s">
         <v>1</v>
@@ -3393,12 +3399,12 @@
         <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
         <v>1</v>
@@ -3410,12 +3416,12 @@
         <v>126</v>
       </c>
       <c r="E107" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" t="s">
         <v>1</v>
@@ -3427,29 +3433,29 @@
         <v>126</v>
       </c>
       <c r="E108" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>1</v>
       </c>
       <c r="C109" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D109" t="s">
         <v>126</v>
       </c>
       <c r="E109" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B110" t="s">
         <v>116</v>
@@ -3461,12 +3467,12 @@
         <v>126</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B111" t="s">
         <v>116</v>
@@ -3478,12 +3484,12 @@
         <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B112" t="s">
         <v>116</v>
@@ -3495,12 +3501,12 @@
         <v>126</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B113" t="s">
         <v>116</v>
@@ -3512,6 +3518,23 @@
         <v>126</v>
       </c>
       <c r="E113" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>116</v>
+      </c>
+      <c r="C114" t="s">
+        <v>124</v>
+      </c>
+      <c r="D114" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" t="s">
         <v>240</v>
       </c>
     </row>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -15,14 +15,14 @@
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$D$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="302">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -757,6 +757,177 @@
   </si>
   <si>
     <t>4601498007500</t>
+  </si>
+  <si>
+    <t>НФП</t>
+  </si>
+  <si>
+    <t>Аир корневища НФП</t>
+  </si>
+  <si>
+    <t>Алтей корни НФП</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (моно), пачка</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (сборы), пачка</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги НФП</t>
+  </si>
+  <si>
+    <t>Березовые почки НФП</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки НФП</t>
+  </si>
+  <si>
+    <t>Боярышник плоды НФП</t>
+  </si>
+  <si>
+    <t>Брусника листья НФП</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями НФП</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Дуб кора НФП</t>
+  </si>
+  <si>
+    <t>Зверобой трава НФП</t>
+  </si>
+  <si>
+    <t>Крапива листья НФП</t>
+  </si>
+  <si>
+    <t>Крушина кора НФП</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами НФП</t>
+  </si>
+  <si>
+    <t>Морская капуста (ламинарии слоевища) НФП</t>
+  </si>
+  <si>
+    <t>Лен семена НФП</t>
+  </si>
+  <si>
+    <t>Липа цветки НФП</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья НФП</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды НФП</t>
+  </si>
+  <si>
+    <t>Мята перечная листья НФП</t>
+  </si>
+  <si>
+    <t>Ноготки цветки НФП</t>
+  </si>
+  <si>
+    <t>Пижма цветки НФП</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья НФП</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава НФП</t>
+  </si>
+  <si>
+    <t>Пустырник трава НФП</t>
+  </si>
+  <si>
+    <t>Ромашка цветки НФП</t>
+  </si>
+  <si>
+    <t>Рябина плоды НФП</t>
+  </si>
+  <si>
+    <t>Сбор Грудной №4 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №1 (Грудной сбор №1) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сенна листья НФП</t>
+  </si>
+  <si>
+    <t>Солодка корни НФП</t>
+  </si>
+  <si>
+    <t>Горец птичий (спорыш) трава НФП</t>
+  </si>
+  <si>
+    <t>Толокнянка листья НФП</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава НФП</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды НФП</t>
+  </si>
+  <si>
+    <t>Чабрец трава НФП</t>
+  </si>
+  <si>
+    <t>Чага НФП</t>
+  </si>
+  <si>
+    <t>Череда трава НФП</t>
+  </si>
+  <si>
+    <t>Чистотел трава НФП</t>
+  </si>
+  <si>
+    <t>Шалфей листья НФП</t>
+  </si>
+  <si>
+    <t>Шиповник оболочки плодов НФП</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья НФП</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава НФП</t>
+  </si>
+  <si>
+    <t>Целевое назначение</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>ФармаЦветик Чай для кормящих мам НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
   </si>
 </sst>
 </file>
@@ -1585,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,9 +1769,11 @@
     <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
@@ -1616,8 +1789,14 @@
       <c r="E1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>245</v>
+      </c>
+      <c r="G1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1633,8 +1812,14 @@
       <c r="E2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1650,8 +1835,14 @@
       <c r="E3" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>247</v>
+      </c>
+      <c r="G3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1667,8 +1858,14 @@
       <c r="E4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1684,8 +1881,14 @@
       <c r="E5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1701,8 +1904,14 @@
       <c r="E6" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1718,8 +1927,14 @@
       <c r="E7" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1735,8 +1950,14 @@
       <c r="E8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1752,8 +1973,14 @@
       <c r="E9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1770,7 +1997,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1786,8 +2013,14 @@
       <c r="E11" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1803,8 +2036,14 @@
       <c r="E12" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1820,8 +2059,14 @@
       <c r="E13" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1837,8 +2082,14 @@
       <c r="E14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1854,8 +2105,14 @@
       <c r="E15" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1871,8 +2128,14 @@
       <c r="E16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1888,8 +2151,14 @@
       <c r="E17" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1905,8 +2174,14 @@
       <c r="E18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>263</v>
+      </c>
+      <c r="G18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1922,8 +2197,14 @@
       <c r="E19" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1939,8 +2220,14 @@
       <c r="E20" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1956,8 +2243,14 @@
       <c r="E21" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>266</v>
+      </c>
+      <c r="G21" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1973,8 +2266,14 @@
       <c r="E22" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>267</v>
+      </c>
+      <c r="G22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1990,8 +2289,14 @@
       <c r="E23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>268</v>
+      </c>
+      <c r="G23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2007,8 +2312,14 @@
       <c r="E24" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>269</v>
+      </c>
+      <c r="G24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -2024,8 +2335,14 @@
       <c r="E25" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -2041,8 +2358,14 @@
       <c r="E26" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2058,8 +2381,14 @@
       <c r="E27" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>272</v>
+      </c>
+      <c r="G27" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
@@ -2075,8 +2404,14 @@
       <c r="E28" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
@@ -2092,8 +2427,14 @@
       <c r="E29" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>274</v>
+      </c>
+      <c r="G29" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -2109,8 +2450,14 @@
       <c r="E30" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>275</v>
+      </c>
+      <c r="G30" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -2126,8 +2473,14 @@
       <c r="E31" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>276</v>
+      </c>
+      <c r="G31" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
@@ -2143,8 +2496,14 @@
       <c r="E32" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>277</v>
+      </c>
+      <c r="G32" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -2160,8 +2519,14 @@
       <c r="E33" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G33" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -2177,8 +2542,14 @@
       <c r="E34" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>279</v>
+      </c>
+      <c r="G34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -2194,8 +2565,14 @@
       <c r="E35" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -2211,8 +2588,14 @@
       <c r="E36" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>281</v>
+      </c>
+      <c r="G36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -2228,8 +2611,14 @@
       <c r="E37" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="s">
+        <v>282</v>
+      </c>
+      <c r="G37" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
@@ -2245,8 +2634,14 @@
       <c r="E38" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>283</v>
+      </c>
+      <c r="G38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
@@ -2262,8 +2657,14 @@
       <c r="E39" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>284</v>
+      </c>
+      <c r="G39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
@@ -2279,8 +2680,11 @@
       <c r="E40" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -2296,8 +2700,11 @@
       <c r="E41" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>243</v>
       </c>
@@ -2313,8 +2720,11 @@
       <c r="E42" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
@@ -2331,7 +2741,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2348,7 +2758,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2365,7 +2775,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2792,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
@@ -2399,7 +2809,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -2416,7 +2826,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -2433,7 +2843,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -2450,7 +2860,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -2467,7 +2877,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2484,7 +2894,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2501,7 +2911,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2518,7 +2928,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2535,7 +2945,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2552,7 +2962,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2568,8 +2978,11 @@
       <c r="E57" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2585,8 +2998,11 @@
       <c r="E58" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2602,8 +3018,11 @@
       <c r="E59" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2619,8 +3038,11 @@
       <c r="E60" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>241</v>
       </c>
@@ -2637,7 +3059,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
@@ -2654,7 +3076,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
@@ -2671,7 +3093,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
@@ -2960,7 +3382,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>82</v>
       </c>
@@ -2977,7 +3399,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2994,7 +3416,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -3011,7 +3433,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>85</v>
       </c>
@@ -3028,7 +3450,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>86</v>
       </c>
@@ -3045,7 +3467,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>87</v>
       </c>
@@ -3062,7 +3484,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>88</v>
       </c>
@@ -3079,7 +3501,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>89</v>
       </c>
@@ -3096,7 +3518,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>90</v>
       </c>
@@ -3113,7 +3535,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -3130,7 +3552,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -3147,7 +3569,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>93</v>
       </c>
@@ -3164,7 +3586,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>94</v>
       </c>
@@ -3181,7 +3603,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>95</v>
       </c>
@@ -3198,7 +3620,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>96</v>
       </c>
@@ -3214,8 +3636,11 @@
       <c r="E95" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>97</v>
       </c>
@@ -3232,7 +3657,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>98</v>
       </c>
@@ -3249,7 +3674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>99</v>
       </c>
@@ -3266,7 +3691,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>100</v>
       </c>
@@ -3283,7 +3708,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>101</v>
       </c>
@@ -3300,7 +3725,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>102</v>
       </c>
@@ -3317,7 +3742,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>103</v>
       </c>
@@ -3333,8 +3758,14 @@
       <c r="E102" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="s">
+        <v>285</v>
+      </c>
+      <c r="G102" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -3350,8 +3781,14 @@
       <c r="E103" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="s">
+        <v>286</v>
+      </c>
+      <c r="G103" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>105</v>
       </c>
@@ -3367,8 +3804,14 @@
       <c r="E104" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="s">
+        <v>287</v>
+      </c>
+      <c r="G104" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>106</v>
       </c>
@@ -3384,8 +3827,14 @@
       <c r="E105" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="s">
+        <v>288</v>
+      </c>
+      <c r="G105" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>107</v>
       </c>
@@ -3401,8 +3850,14 @@
       <c r="E106" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="s">
+        <v>289</v>
+      </c>
+      <c r="G106" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>108</v>
       </c>
@@ -3418,8 +3873,14 @@
       <c r="E107" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="s">
+        <v>290</v>
+      </c>
+      <c r="G107" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>109</v>
       </c>
@@ -3435,8 +3896,14 @@
       <c r="E108" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="s">
+        <v>291</v>
+      </c>
+      <c r="G108" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>110</v>
       </c>
@@ -3452,8 +3919,14 @@
       <c r="E109" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="s">
+        <v>292</v>
+      </c>
+      <c r="G109" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>111</v>
       </c>
@@ -3470,7 +3943,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>112</v>
       </c>
@@ -3487,7 +3960,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>113</v>
       </c>
@@ -3539,7 +4012,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:D114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AAFCC-F765-AF47-9D11-DE2C0155ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="9105"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="340">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -928,13 +929,127 @@
   </si>
   <si>
     <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (моно), ф/п</t>
+  </si>
+  <si>
+    <t>Бадан корневища НФП</t>
+  </si>
+  <si>
+    <t>Береза листья НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (сборы), ф/п</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (сборы), ф/п</t>
+  </si>
+  <si>
+    <t>ВердиоГаст®</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай диабетический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай при простуде НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Душица трава НФП</t>
+  </si>
+  <si>
+    <t>Золототысячник трава НФП</t>
+  </si>
+  <si>
+    <t>Кровохлебка корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Лапчатка прямостоячая корневища НФП</t>
+  </si>
+  <si>
+    <t>Мелисса лекарственная трава НФП</t>
+  </si>
+  <si>
+    <t>Ольха соплодия НФП</t>
+  </si>
+  <si>
+    <t>Пастушья сумка трава НФП</t>
+  </si>
+  <si>
+    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
+  </si>
+  <si>
+    <t>Фиалка трехцветная трава НФП</t>
+  </si>
+  <si>
+    <t>Хвощ полевой трава НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды НФП</t>
+  </si>
+  <si>
+    <t>Стоматофит</t>
+  </si>
+  <si>
+    <t>Стоматофит А</t>
+  </si>
+  <si>
+    <t>Стоматофит эксперт</t>
+  </si>
+  <si>
+    <t>Бронхофитол</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1086,6 +1201,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1429,10 +1550,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1755,2264 +1877,2648 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="6" max="6" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D6" t="s">
-        <v>126</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="F10" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="D14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D18" t="s">
-        <v>126</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D20" t="s">
-        <v>126</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22" t="s">
-        <v>126</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="D22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D24" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D27" t="s">
-        <v>126</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D28" t="s">
-        <v>126</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="D28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D29" t="s">
-        <v>126</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="D30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D31" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="D32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" t="s">
-        <v>126</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="D33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D34" t="s">
-        <v>126</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="D34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D38" t="s">
-        <v>126</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D39" t="s">
-        <v>126</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="D39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="G40" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="G41" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="G42" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="C43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F43" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="C44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F44" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="C45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F45" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="C46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F46" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C47" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="C47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F47" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48" t="s">
-        <v>121</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="C48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F48" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C49" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F49" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C50" t="s">
-        <v>121</v>
-      </c>
-      <c r="D50" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F50" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51" t="s">
-        <v>126</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F51" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C52" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="F52" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" t="s">
-        <v>126</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="F53" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="F54" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" t="s">
-        <v>121</v>
-      </c>
-      <c r="D55" t="s">
-        <v>126</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="F55" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="F56" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="1" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="G57" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="1" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="G58" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="1" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="G59" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="G60" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C61" t="s">
-        <v>121</v>
-      </c>
-      <c r="D61" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="F61" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C62" t="s">
-        <v>121</v>
-      </c>
-      <c r="D62" t="s">
-        <v>126</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="F62" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C63" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" t="s">
-        <v>126</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="F63" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" t="s">
-        <v>126</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="F64" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C65" t="s">
-        <v>121</v>
-      </c>
-      <c r="D65" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="F65" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C66" t="s">
-        <v>121</v>
-      </c>
-      <c r="D66" t="s">
-        <v>126</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+      <c r="F66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C67" t="s">
-        <v>121</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="F67" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C68" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" t="s">
-        <v>126</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="F68" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C69" t="s">
-        <v>121</v>
-      </c>
-      <c r="D69" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+      <c r="F69" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C70" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" t="s">
-        <v>126</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="F70" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D71" t="s">
-        <v>126</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="F71" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C72" t="s">
-        <v>121</v>
-      </c>
-      <c r="D72" t="s">
-        <v>126</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" s="1" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="F72" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C73" t="s">
-        <v>121</v>
-      </c>
-      <c r="D73" t="s">
-        <v>126</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="F73" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C74" t="s">
-        <v>121</v>
-      </c>
-      <c r="D74" t="s">
-        <v>126</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="C74" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F74" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" t="s">
-        <v>126</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="C75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F75" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C76" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>126</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C76" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="F76" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D77" t="s">
-        <v>126</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C77" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="F77" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C78" t="s">
-        <v>121</v>
-      </c>
-      <c r="D78" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C78" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="F78" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C79" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" t="s">
-        <v>126</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E79" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="F79" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C80" t="s">
-        <v>121</v>
-      </c>
-      <c r="D80" t="s">
-        <v>126</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C80" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="F80" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C81" t="s">
-        <v>121</v>
-      </c>
-      <c r="D81" t="s">
-        <v>126</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="F81" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C82" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" t="s">
-        <v>126</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C82" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="F82" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C83" t="s">
-        <v>121</v>
-      </c>
-      <c r="D83" t="s">
-        <v>126</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="F83" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C84" t="s">
-        <v>121</v>
-      </c>
-      <c r="D84" t="s">
-        <v>126</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="F84" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C85" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" t="s">
-        <v>126</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="F85" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C86" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C86" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="F86" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C87" t="s">
-        <v>121</v>
-      </c>
-      <c r="D87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="F87" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C88" t="s">
-        <v>121</v>
-      </c>
-      <c r="D88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C88" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E88" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="F88" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C89" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C89" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="1" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="F89" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C90" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C90" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="F90" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C91" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C91" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="1" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="F91" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C92" t="s">
-        <v>121</v>
-      </c>
-      <c r="D92" t="s">
-        <v>126</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C92" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="F92" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C93" t="s">
-        <v>121</v>
-      </c>
-      <c r="D93" t="s">
-        <v>126</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C93" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E93" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="F93" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C94" t="s">
-        <v>121</v>
-      </c>
-      <c r="D94" t="s">
-        <v>126</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C94" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E94" s="1" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="F94" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="G95" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C96" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" t="s">
-        <v>126</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C96" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E96" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="F96" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C97" t="s">
-        <v>121</v>
-      </c>
-      <c r="D97" t="s">
-        <v>126</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C97" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E97" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="F97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C98" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" t="s">
-        <v>126</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C98" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="F98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C99" t="s">
-        <v>121</v>
-      </c>
-      <c r="D99" t="s">
-        <v>126</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="F99" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" t="s">
-        <v>126</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C100" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="F100" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C101" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" t="s">
-        <v>126</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C101" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="F101" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="D102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F102" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D103" t="s">
-        <v>126</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="D103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F103" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D104" t="s">
-        <v>126</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="D104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D105" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="D105" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D106" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="D106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D107" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="D107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D108" t="s">
-        <v>126</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="D108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F108" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D109" t="s">
-        <v>126</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="D109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E109" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D110" t="s">
-        <v>126</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="D110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E110" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="F110" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D111" t="s">
-        <v>126</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E111" s="1" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="F111" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D112" t="s">
-        <v>126</v>
-      </c>
-      <c r="E112" t="s">
+      <c r="D112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E112" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="F112" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D113" t="s">
-        <v>126</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="D113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E113" s="1" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="F113" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D114" t="s">
-        <v>126</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="D114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E114" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="F114" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D114"/>
+  <autoFilter ref="A1:D114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5AAFCC-F765-AF47-9D11-DE2C0155ABA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$D$114</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="341">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -1043,12 +1042,15 @@
   </si>
   <si>
     <t>Бронхофитол</t>
+  </si>
+  <si>
+    <t>Масса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1877,2648 +1879,2991 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" customWidth="1"/>
+    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>75</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="1">
+        <v>75</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="1">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="1">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E11" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="1">
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="1">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="1">
+        <v>50</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="1">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="1">
+        <v>40</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="1">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="1">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="1">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E19" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="1">
+        <v>35</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="1">
+        <v>50</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="1">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="1">
+        <v>50</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E23" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="1">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="1">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E25" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="1">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="1">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="1">
+        <v>50</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E28" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="1">
+        <v>50</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E29" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="1">
+        <v>50</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="1">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="1">
+        <v>35</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E32" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="1">
+        <v>35</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="1">
+        <v>50</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="1">
+        <v>50</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E35" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="1">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D36" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="1">
+        <v>50</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="1">
+        <v>50</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E38" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="1">
+        <v>50</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="1">
+        <v>30</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="1">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="1">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="1">
+        <v>40</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="1">
+        <v>40</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="1">
+        <v>40</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D45" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="1">
+        <v>40</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D46" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="1">
+        <v>40</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="1">
+        <v>40</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="1">
+        <v>40</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="1">
+        <v>30</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D50" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="1">
+        <v>30</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="1">
+        <v>30</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="1">
+        <v>60</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="1">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D54" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="1">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="1">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D56" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="1">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="1">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="F60" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="1">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E61" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D62" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="1">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="1">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E64" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D65" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="1">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D66" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="1">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D67" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="1">
+        <v>50</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E68" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="1">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E70" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D71" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D72" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D73" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D74" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E74" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="1">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D75" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="1">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D76" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="1">
+        <v>30</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D78" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="1">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="1">
+        <v>40</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E80" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="1">
+        <v>40</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="1">
+        <v>40</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="1">
+        <v>40</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D83" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="1">
+        <v>40</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D84" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="1">
+        <v>40</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D85" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E85" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="1">
+        <v>40</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D86" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="1">
+        <v>40</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D87" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="1">
+        <v>40</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D88" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="1">
+        <v>40</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D89" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="1">
+        <v>40</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D90" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D91" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="1">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D92" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="1">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D93" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="G93" s="1" t="s">
+      <c r="H93" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D94" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="1">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="1">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D96" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E96" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="1">
+        <v>30</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D97" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E97" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="1">
+        <v>30</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D98" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="1">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D99" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E99" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="1">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D100" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E100" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="1">
+        <v>40</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="D101" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E101" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="1">
+        <v>50</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E102" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="1">
+        <v>50</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D103" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E103" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="1">
+        <v>50</v>
+      </c>
+      <c r="C104" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E104" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="1">
+        <v>50</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E105" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="1">
+        <v>50</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E106" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="1">
+        <v>50</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D107" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="1">
+        <v>75</v>
+      </c>
+      <c r="C108" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D108" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E108" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="1">
+        <v>30</v>
+      </c>
+      <c r="C109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E109" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="1">
+        <v>100</v>
+      </c>
+      <c r="C110" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D110" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E110" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="1">
+        <v>50</v>
+      </c>
+      <c r="C111" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E111" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="1">
+        <v>25</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D112" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E112" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="1">
+        <v>50</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="1">
+        <v>100</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>302</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B1E685-8B62-744C-8158-401269E3ABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17445"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$E$114</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,1006 +65,1006 @@
     <t>Валериана корневища с корнями 50г</t>
   </si>
   <si>
+    <t>Контрактная площадка</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Ламинарии слоевища (морская капуста) 100г</t>
+  </si>
+  <si>
+    <t>Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Спорыш трава 50г</t>
+  </si>
+  <si>
+    <t>Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Линия ИМА С 21</t>
+  </si>
+  <si>
+    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Линия ИМА С 50</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
+  </si>
+  <si>
+    <t>Фп Аир корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Бадан корневища 20x1,5г</t>
+  </si>
+  <si>
+    <t>Линия Консумаш</t>
+  </si>
+  <si>
+    <t>Фп Береза листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Валериана корневища с корнями 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Девясил корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Душица трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Зверобой трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Золототысячник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крапива листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Крушина кора 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Лапчатка корневища 20x2,5г</t>
+  </si>
+  <si>
+    <t>Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ноготки цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ольха соплодия 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пастушья сумка трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пижма цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Подорожник листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Почечный чай листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Пустырник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Ромашка цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Желудочный №3 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>Фп Сенна листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Толокнянка листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Тысячелистник трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Хвощ полевой трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чабрец трава 20x1,5 г</t>
+  </si>
+  <si>
+    <t>Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шалфей листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>Стоматофит 100 мл</t>
+  </si>
+  <si>
+    <t>Стоматофит 50 мл</t>
+  </si>
+  <si>
+    <t>Стоматофит А 25 г</t>
+  </si>
+  <si>
+    <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
+  </si>
+  <si>
+    <t>Бронхофитол® плющ сироп 100 мл</t>
+  </si>
+  <si>
+    <t>Линия розлива</t>
+  </si>
+  <si>
+    <t>Форма</t>
+  </si>
+  <si>
+    <t>Производственная линия</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>пачка</t>
+  </si>
+  <si>
+    <t>однокамерный фп</t>
+  </si>
+  <si>
+    <t>двухкамерный фп</t>
+  </si>
+  <si>
+    <t>капсулы</t>
+  </si>
+  <si>
+    <t>флакон</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>ЛС</t>
+  </si>
+  <si>
+    <t>БАД</t>
+  </si>
+  <si>
+    <t>Спецпитание</t>
+  </si>
+  <si>
+    <t>GTIN</t>
+  </si>
+  <si>
+    <t>4601498007524</t>
+  </si>
+  <si>
+    <t>4601498007517</t>
+  </si>
+  <si>
+    <t>4601498007531</t>
+  </si>
+  <si>
+    <t>4601498007548</t>
+  </si>
+  <si>
+    <t>4601498007562</t>
+  </si>
+  <si>
+    <t>4601498007555</t>
+  </si>
+  <si>
+    <t>4601498007579</t>
+  </si>
+  <si>
+    <t>4601498007449</t>
+  </si>
+  <si>
+    <t>4601498007418</t>
+  </si>
+  <si>
+    <t>4601498007432</t>
+  </si>
+  <si>
+    <t>4601498007425</t>
+  </si>
+  <si>
+    <t>4601498006329</t>
+  </si>
+  <si>
+    <t>4601498006435</t>
+  </si>
+  <si>
+    <t>4601498006602</t>
+  </si>
+  <si>
+    <t>4601498006343</t>
+  </si>
+  <si>
+    <t>4601498006626</t>
+  </si>
+  <si>
+    <t>4601498006817</t>
+  </si>
+  <si>
+    <t>4601498006190</t>
+  </si>
+  <si>
+    <t>4601498007111</t>
+  </si>
+  <si>
+    <t>4601498007456</t>
+  </si>
+  <si>
+    <t>4601498006794</t>
+  </si>
+  <si>
+    <t>4601498006695</t>
+  </si>
+  <si>
+    <t>4601498006589</t>
+  </si>
+  <si>
+    <t>4601498007210</t>
+  </si>
+  <si>
+    <t>4601498006077</t>
+  </si>
+  <si>
+    <t>4601498006527</t>
+  </si>
+  <si>
+    <t>4601498006701</t>
+  </si>
+  <si>
+    <t>4601498006374</t>
+  </si>
+  <si>
+    <t>4601498006411</t>
+  </si>
+  <si>
+    <t>4601498006534</t>
+  </si>
+  <si>
+    <t>4601498006268</t>
+  </si>
+  <si>
+    <t>4601498007296</t>
+  </si>
+  <si>
+    <t>4601498007203</t>
+  </si>
+  <si>
+    <t>4601498006138</t>
+  </si>
+  <si>
+    <t>4601498007319</t>
+  </si>
+  <si>
+    <t>4601498007357</t>
+  </si>
+  <si>
+    <t>4601498007302</t>
+  </si>
+  <si>
+    <t>4601498006688</t>
+  </si>
+  <si>
+    <t>4601498006800</t>
+  </si>
+  <si>
+    <t>4601498006213</t>
+  </si>
+  <si>
+    <t>4601498006220</t>
+  </si>
+  <si>
+    <t>4601498006640</t>
+  </si>
+  <si>
+    <t>4601498006657</t>
+  </si>
+  <si>
+    <t>4601498007104</t>
+  </si>
+  <si>
+    <t>4601498006381</t>
+  </si>
+  <si>
+    <t>4601498006541</t>
+  </si>
+  <si>
+    <t>4601498006558</t>
+  </si>
+  <si>
+    <t>4601498007371</t>
+  </si>
+  <si>
+    <t>4601498006503</t>
+  </si>
+  <si>
+    <t>4601498007470</t>
+  </si>
+  <si>
+    <t>4601498007463</t>
+  </si>
+  <si>
+    <t>4601498001959</t>
+  </si>
+  <si>
+    <t>4601498003885</t>
+  </si>
+  <si>
+    <t>4601498003908</t>
+  </si>
+  <si>
+    <t>4601498003717</t>
+  </si>
+  <si>
+    <t>4601498003762</t>
+  </si>
+  <si>
+    <t>4601498000693</t>
+  </si>
+  <si>
+    <t>4601498003861</t>
+  </si>
+  <si>
+    <t>4601498006831</t>
+  </si>
+  <si>
+    <t>4601498006848</t>
+  </si>
+  <si>
+    <t>4601498003748</t>
+  </si>
+  <si>
+    <t>4601498006992</t>
+  </si>
+  <si>
+    <t>4601498003922</t>
+  </si>
+  <si>
+    <t>4601498003519</t>
+  </si>
+  <si>
+    <t>4601498003946</t>
+  </si>
+  <si>
+    <t>4601498000709</t>
+  </si>
+  <si>
+    <t>4601498000631</t>
+  </si>
+  <si>
+    <t>4601498000686</t>
+  </si>
+  <si>
+    <t>4601498001997</t>
+  </si>
+  <si>
+    <t>4601498003625</t>
+  </si>
+  <si>
+    <t>4601498003960</t>
+  </si>
+  <si>
+    <t>4601498003823</t>
+  </si>
+  <si>
+    <t>4601498002031</t>
+  </si>
+  <si>
+    <t>4601498000648</t>
+  </si>
+  <si>
+    <t>4601498007005</t>
+  </si>
+  <si>
+    <t>4601498006824</t>
+  </si>
+  <si>
+    <t>4601498005421</t>
+  </si>
+  <si>
+    <t>4601498005650</t>
+  </si>
+  <si>
+    <t>4601498000730</t>
+  </si>
+  <si>
+    <t>4601498005032</t>
+  </si>
+  <si>
+    <t>4601498005773</t>
+  </si>
+  <si>
+    <t>4601498005735</t>
+  </si>
+  <si>
+    <t>4601498005759</t>
+  </si>
+  <si>
+    <t>4601498005797</t>
+  </si>
+  <si>
+    <t>4601498005056</t>
+  </si>
+  <si>
+    <t>4601498005810</t>
+  </si>
+  <si>
+    <t>4601498005711</t>
+  </si>
+  <si>
+    <t>4601498000662</t>
+  </si>
+  <si>
+    <t>4601498000679</t>
+  </si>
+  <si>
+    <t>4601498002055</t>
+  </si>
+  <si>
+    <t>4601498002079</t>
+  </si>
+  <si>
+    <t>4601498006978</t>
+  </si>
+  <si>
+    <t>4601498003540</t>
+  </si>
+  <si>
+    <t>4601498007173</t>
+  </si>
+  <si>
+    <t>4601498003809</t>
+  </si>
+  <si>
+    <t>4601498003588</t>
+  </si>
+  <si>
+    <t>4601498007364</t>
+  </si>
+  <si>
+    <t>4601498003694</t>
+  </si>
+  <si>
+    <t>4601498007340</t>
+  </si>
+  <si>
+    <t>4601498006671</t>
+  </si>
+  <si>
+    <t>4601498007135</t>
+  </si>
+  <si>
+    <t>4601498007128</t>
+  </si>
+  <si>
+    <t>4601498006398</t>
+  </si>
+  <si>
+    <t>4601498007388</t>
+  </si>
+  <si>
+    <t>4601498006572</t>
+  </si>
+  <si>
+    <t>4601498006428</t>
+  </si>
+  <si>
+    <t>5903473000827</t>
+  </si>
+  <si>
+    <t>5903473001183</t>
+  </si>
+  <si>
+    <t>5903473007048</t>
+  </si>
+  <si>
+    <t>5903473001206</t>
+  </si>
+  <si>
+    <t>5903473000896</t>
+  </si>
+  <si>
+    <t>Фп Дуб кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>4601498005872</t>
+  </si>
+  <si>
+    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>4601498007500</t>
+  </si>
+  <si>
+    <t>НФП</t>
+  </si>
+  <si>
+    <t>Аир корневища НФП</t>
+  </si>
+  <si>
+    <t>Алтей корни НФП</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (моно), пачка</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (сборы), пачка</t>
+  </si>
+  <si>
+    <t>Багульник болотный побеги НФП</t>
+  </si>
+  <si>
+    <t>Березовые почки НФП</t>
+  </si>
+  <si>
+    <t>Бессмертник песчаный цветки НФП</t>
+  </si>
+  <si>
+    <t>Боярышник плоды НФП</t>
+  </si>
+  <si>
+    <t>Брусника листья НФП</t>
+  </si>
+  <si>
+    <t>Валериана корневища с корнями НФП</t>
+  </si>
+  <si>
+    <t>Девясил корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Дуб кора НФП</t>
+  </si>
+  <si>
+    <t>Зверобой трава НФП</t>
+  </si>
+  <si>
+    <t>Крапива листья НФП</t>
+  </si>
+  <si>
+    <t>Крушина кора НФП</t>
+  </si>
+  <si>
+    <t>Кукуруза столбики с рыльцами НФП</t>
+  </si>
+  <si>
+    <t>Морская капуста (ламинарии слоевища) НФП</t>
+  </si>
+  <si>
+    <t>Лен семена НФП</t>
+  </si>
+  <si>
+    <t>Липа цветки НФП</t>
+  </si>
+  <si>
+    <t>Мать-и-мачеха листья НФП</t>
+  </si>
+  <si>
+    <t>Можжевельник плоды НФП</t>
+  </si>
+  <si>
+    <t>Мята перечная листья НФП</t>
+  </si>
+  <si>
+    <t>Ноготки цветки НФП</t>
+  </si>
+  <si>
+    <t>Пижма цветки НФП</t>
+  </si>
+  <si>
+    <t>Подорожник большой листья НФП</t>
+  </si>
+  <si>
+    <t>Полынь горькая трава НФП</t>
+  </si>
+  <si>
+    <t>Пустырник трава НФП</t>
+  </si>
+  <si>
+    <t>Ромашка цветки НФП</t>
+  </si>
+  <si>
+    <t>Рябина плоды НФП</t>
+  </si>
+  <si>
+    <t>Сбор Грудной №4 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №1 (Грудной сбор №1) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сенна листья НФП</t>
+  </si>
+  <si>
+    <t>Солодка корни НФП</t>
+  </si>
+  <si>
+    <t>Горец птичий (спорыш) трава НФП</t>
+  </si>
+  <si>
+    <t>Толокнянка листья НФП</t>
+  </si>
+  <si>
+    <t>Тысячелистник трава НФП</t>
+  </si>
+  <si>
+    <t>Укроп пахучий плоды НФП</t>
+  </si>
+  <si>
+    <t>Чабрец трава НФП</t>
+  </si>
+  <si>
+    <t>Чага НФП</t>
+  </si>
+  <si>
+    <t>Череда трава НФП</t>
+  </si>
+  <si>
+    <t>Чистотел трава НФП</t>
+  </si>
+  <si>
+    <t>Шалфей листья НФП</t>
+  </si>
+  <si>
+    <t>Шиповник оболочки плодов НФП</t>
+  </si>
+  <si>
+    <t>Эвкалипт прутовидный листья НФП</t>
+  </si>
+  <si>
+    <t>Эрва шерстистая трава НФП</t>
+  </si>
+  <si>
+    <t>Целевое назначение</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
+  </si>
+  <si>
+    <t>ФармаЦветик Чай для кормящих мам НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
+  </si>
+  <si>
+    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
+  </si>
+  <si>
+    <t>Фиточай Лактафитол НФП</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (моно), ф/п</t>
+  </si>
+  <si>
+    <t>Бадан корневища НФП</t>
+  </si>
+  <si>
+    <t>Береза листья НФП</t>
+  </si>
+  <si>
+    <t>Пищевая продукция (сборы), ф/п</t>
+  </si>
+  <si>
+    <t>Лекарств. продукция (сборы), ф/п</t>
+  </si>
+  <si>
+    <t>ВердиоГаст®</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай диабетический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для иммунитета НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай кардиологический НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай очищающий НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай при простуде НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай успокоительный НФП</t>
+  </si>
+  <si>
+    <t>Щедрость природы Фиточай для пищеварения НФП</t>
+  </si>
+  <si>
+    <t>Душица трава НФП</t>
+  </si>
+  <si>
+    <t>Золототысячник трава НФП</t>
+  </si>
+  <si>
+    <t>Кровохлебка корневища и корни НФП</t>
+  </si>
+  <si>
+    <t>Лапчатка прямостоячая корневища НФП</t>
+  </si>
+  <si>
+    <t>Мелисса лекарственная трава НФП</t>
+  </si>
+  <si>
+    <t>Ольха соплодия НФП</t>
+  </si>
+  <si>
+    <t>Пастушья сумка трава НФП</t>
+  </si>
+  <si>
+    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
+  </si>
+  <si>
+    <t>Сбор Арфазетин-Э НФП</t>
+  </si>
+  <si>
+    <t>Сбор Бруснивер НФП</t>
+  </si>
+  <si>
+    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Желудочный №3 НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
+  </si>
+  <si>
+    <t>Сбор Элекасол НФП</t>
+  </si>
+  <si>
+    <t>Фиалка трехцветная трава НФП</t>
+  </si>
+  <si>
+    <t>Хвощ полевой трава НФП</t>
+  </si>
+  <si>
+    <t>Шиповник плоды НФП</t>
+  </si>
+  <si>
+    <t>Стоматофит</t>
+  </si>
+  <si>
+    <t>Стоматофит А</t>
+  </si>
+  <si>
+    <t>Стоматофит эксперт</t>
+  </si>
+  <si>
+    <t>Бронхофитол</t>
+  </si>
+  <si>
+    <t>Масса</t>
+  </si>
+  <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
-    <t>Контрактная площадка</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни 50г</t>
-  </si>
-  <si>
-    <t>Дуба кора 75г</t>
-  </si>
-  <si>
-    <t>Зверобой трава 50г</t>
-  </si>
-  <si>
-    <t>Крапива листья 50г</t>
-  </si>
-  <si>
-    <t>Крушина кора 50г</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами 40г</t>
-  </si>
-  <si>
-    <t>Ламинарии слоевища (морская капуста) 100г</t>
-  </si>
-  <si>
-    <t>Лен семена 100г</t>
-  </si>
-  <si>
-    <t>Липа цветки 35г</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья 35г</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды 50г</t>
-  </si>
-  <si>
-    <t>Мята перечная листья 50г</t>
-  </si>
-  <si>
-    <t>Ноготки цветки 50г</t>
-  </si>
-  <si>
-    <t>Пижма цветки 75г</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья 50г</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава 50г</t>
-  </si>
-  <si>
-    <t>Пустырник трава 50г</t>
-  </si>
-  <si>
-    <t>Ромашка цветки вн 50г</t>
-  </si>
-  <si>
-    <t>Рябина плоды 50г</t>
-  </si>
-  <si>
-    <t>Сб. Грудной №4 50г</t>
-  </si>
-  <si>
-    <t>Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
-  </si>
-  <si>
-    <t>Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
-  </si>
-  <si>
-    <t>Сенна листья 50г</t>
-  </si>
-  <si>
-    <t>Солодка корни 50г</t>
-  </si>
-  <si>
-    <t>Спорыш трава 50г</t>
-  </si>
-  <si>
-    <t>Толокнянка листья 50г</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава 50г</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды 50г</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем"(БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Линия ИМА С 21</t>
-  </si>
-  <si>
-    <t>Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" (БАД) 20*1,5г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай диабетический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Линия ИМА С 50</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для иммунитета" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай для пищеварения" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай кардиологический" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай очищающий" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай при простуде" 20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп "Щедрость природы® Фиточай успокоительный"20х2,0 г</t>
-  </si>
-  <si>
-    <t>Фп Аир корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Бадан корневища 20x1,5г</t>
-  </si>
-  <si>
-    <t>Линия Консумаш</t>
-  </si>
-  <si>
-    <t>Фп Береза листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Боярышник плоды 20х3,0г</t>
-  </si>
-  <si>
-    <t>Фп Брусника листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Валериана корневища с корнями 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Девясил корневища и корни 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Душица трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Зверобой трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Золототысячник трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крапива листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Кровохлебка корневища и корни 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Крушина кора 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Лапчатка корневища 20x2,5г</t>
-  </si>
-  <si>
-    <t>Фп Липа цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мелисса лекарственная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Мята перечная листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ноготки цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ольха соплодия 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пастушья сумка трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пижма цветки 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Подорожник листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Почечный чай листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Пустырник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Ромашка цветки 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Арфазетин-Э 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Бруснивер 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Грудной №4 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Желудочный №3 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сб. Элекасол 20x2,0г</t>
-  </si>
-  <si>
-    <t>Фп Сенна листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Толокнянка листья 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Тысячелистник трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиалка трехцветная трава 20x1,5г</t>
-  </si>
-  <si>
-    <t>Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Хвощ полевой трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чабрец трава 20x1,5 г</t>
-  </si>
-  <si>
-    <t>Фп Череда трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Чистотел трава 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шалфей листья 20х1,5г</t>
-  </si>
-  <si>
-    <t>Фп Шиповник плоды 20х2,0г</t>
-  </si>
-  <si>
-    <t>Чабрец трава 50г</t>
-  </si>
-  <si>
-    <t>Чага (березовый гриб) 50г</t>
-  </si>
-  <si>
-    <t>Череда трава 50г</t>
-  </si>
-  <si>
-    <t>Чистотел трава 50г</t>
-  </si>
-  <si>
-    <t>Шалфей листья 50г</t>
-  </si>
-  <si>
-    <t>Шиповник плоды низковитаминные 50г</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья 75г</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава 30г</t>
-  </si>
-  <si>
-    <t>Стоматофит 100 мл</t>
-  </si>
-  <si>
-    <t>Стоматофит 50 мл</t>
-  </si>
-  <si>
-    <t>Стоматофит А 25 г</t>
-  </si>
-  <si>
-    <t>Стоматофит® эксперт, спрей для местного применения, флакон 50 мл</t>
-  </si>
-  <si>
-    <t>Бронхофитол® плющ сироп 100 мл</t>
-  </si>
-  <si>
-    <t>Линия розлива</t>
-  </si>
-  <si>
-    <t>Форма</t>
-  </si>
-  <si>
-    <t>Производственная линия</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>пачка</t>
-  </si>
-  <si>
-    <t>однокамерный фп</t>
-  </si>
-  <si>
-    <t>двухкамерный фп</t>
-  </si>
-  <si>
-    <t>капсулы</t>
-  </si>
-  <si>
-    <t>флакон</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>ЛС</t>
-  </si>
-  <si>
-    <t>БАД</t>
-  </si>
-  <si>
-    <t>Спецпитание</t>
-  </si>
-  <si>
-    <t>GTIN</t>
-  </si>
-  <si>
-    <t>4601498007524</t>
-  </si>
-  <si>
-    <t>4601498007517</t>
-  </si>
-  <si>
-    <t>4601498007531</t>
-  </si>
-  <si>
-    <t>4601498007548</t>
-  </si>
-  <si>
-    <t>4601498007562</t>
-  </si>
-  <si>
-    <t>4601498007555</t>
-  </si>
-  <si>
-    <t>4601498007579</t>
-  </si>
-  <si>
-    <t>4601498007449</t>
-  </si>
-  <si>
-    <t>4601498007418</t>
-  </si>
-  <si>
-    <t>4601498007432</t>
-  </si>
-  <si>
-    <t>4601498007425</t>
-  </si>
-  <si>
-    <t>4601498006329</t>
-  </si>
-  <si>
-    <t>4601498006435</t>
-  </si>
-  <si>
-    <t>4601498006602</t>
-  </si>
-  <si>
-    <t>4601498006343</t>
-  </si>
-  <si>
-    <t>4601498006626</t>
-  </si>
-  <si>
-    <t>4601498006817</t>
-  </si>
-  <si>
-    <t>4601498006190</t>
-  </si>
-  <si>
-    <t>4601498007111</t>
-  </si>
-  <si>
-    <t>4601498007456</t>
-  </si>
-  <si>
-    <t>4601498006794</t>
-  </si>
-  <si>
-    <t>4601498006695</t>
-  </si>
-  <si>
-    <t>4601498006589</t>
-  </si>
-  <si>
-    <t>4601498007210</t>
-  </si>
-  <si>
-    <t>4601498006077</t>
-  </si>
-  <si>
-    <t>4601498006527</t>
-  </si>
-  <si>
-    <t>4601498006701</t>
-  </si>
-  <si>
-    <t>4601498006374</t>
-  </si>
-  <si>
-    <t>4601498006411</t>
-  </si>
-  <si>
-    <t>4601498006534</t>
-  </si>
-  <si>
-    <t>4601498006268</t>
-  </si>
-  <si>
-    <t>4601498007296</t>
-  </si>
-  <si>
-    <t>4601498007203</t>
-  </si>
-  <si>
-    <t>4601498006138</t>
-  </si>
-  <si>
-    <t>4601498007319</t>
-  </si>
-  <si>
-    <t>4601498007357</t>
-  </si>
-  <si>
-    <t>4601498007302</t>
-  </si>
-  <si>
-    <t>4601498006688</t>
-  </si>
-  <si>
-    <t>4601498006800</t>
-  </si>
-  <si>
-    <t>4601498006213</t>
-  </si>
-  <si>
-    <t>4601498006220</t>
-  </si>
-  <si>
-    <t>4601498006640</t>
-  </si>
-  <si>
-    <t>4601498006657</t>
-  </si>
-  <si>
-    <t>4601498007104</t>
-  </si>
-  <si>
-    <t>4601498006381</t>
-  </si>
-  <si>
-    <t>4601498006541</t>
-  </si>
-  <si>
-    <t>4601498006558</t>
-  </si>
-  <si>
-    <t>4601498007371</t>
-  </si>
-  <si>
-    <t>4601498006503</t>
-  </si>
-  <si>
-    <t>4601498007470</t>
-  </si>
-  <si>
-    <t>4601498007463</t>
-  </si>
-  <si>
-    <t>4601498001959</t>
-  </si>
-  <si>
-    <t>4601498003885</t>
-  </si>
-  <si>
-    <t>4601498003908</t>
-  </si>
-  <si>
-    <t>4601498003717</t>
-  </si>
-  <si>
-    <t>4601498003762</t>
-  </si>
-  <si>
-    <t>4601498000693</t>
-  </si>
-  <si>
-    <t>4601498003861</t>
-  </si>
-  <si>
-    <t>4601498006831</t>
-  </si>
-  <si>
-    <t>4601498006848</t>
-  </si>
-  <si>
-    <t>4601498003748</t>
-  </si>
-  <si>
-    <t>4601498006992</t>
-  </si>
-  <si>
-    <t>4601498003922</t>
-  </si>
-  <si>
-    <t>4601498003519</t>
-  </si>
-  <si>
-    <t>4601498003946</t>
-  </si>
-  <si>
-    <t>4601498000709</t>
-  </si>
-  <si>
-    <t>4601498000631</t>
-  </si>
-  <si>
-    <t>4601498000686</t>
-  </si>
-  <si>
-    <t>4601498001997</t>
-  </si>
-  <si>
-    <t>4601498003625</t>
-  </si>
-  <si>
-    <t>4601498003960</t>
-  </si>
-  <si>
-    <t>4601498003823</t>
-  </si>
-  <si>
-    <t>4601498002031</t>
-  </si>
-  <si>
-    <t>4601498000648</t>
-  </si>
-  <si>
-    <t>4601498007005</t>
-  </si>
-  <si>
-    <t>4601498006824</t>
-  </si>
-  <si>
-    <t>4601498005421</t>
-  </si>
-  <si>
-    <t>4601498005650</t>
-  </si>
-  <si>
-    <t>4601498000730</t>
-  </si>
-  <si>
-    <t>4601498005032</t>
-  </si>
-  <si>
-    <t>4601498005773</t>
-  </si>
-  <si>
-    <t>4601498005735</t>
-  </si>
-  <si>
-    <t>4601498005759</t>
-  </si>
-  <si>
-    <t>4601498005797</t>
-  </si>
-  <si>
-    <t>4601498005056</t>
-  </si>
-  <si>
-    <t>4601498005810</t>
-  </si>
-  <si>
-    <t>4601498005711</t>
-  </si>
-  <si>
-    <t>4601498000662</t>
-  </si>
-  <si>
-    <t>4601498000679</t>
-  </si>
-  <si>
-    <t>4601498002055</t>
-  </si>
-  <si>
-    <t>4601498002079</t>
-  </si>
-  <si>
-    <t>4601498006978</t>
-  </si>
-  <si>
-    <t>4601498003540</t>
-  </si>
-  <si>
-    <t>4601498007173</t>
-  </si>
-  <si>
-    <t>4601498003809</t>
-  </si>
-  <si>
-    <t>4601498003588</t>
-  </si>
-  <si>
-    <t>4601498007364</t>
-  </si>
-  <si>
-    <t>4601498003694</t>
-  </si>
-  <si>
-    <t>4601498007340</t>
-  </si>
-  <si>
-    <t>4601498006671</t>
-  </si>
-  <si>
-    <t>4601498007135</t>
-  </si>
-  <si>
-    <t>4601498007128</t>
-  </si>
-  <si>
-    <t>4601498006398</t>
-  </si>
-  <si>
-    <t>4601498007388</t>
-  </si>
-  <si>
-    <t>4601498006572</t>
-  </si>
-  <si>
-    <t>4601498006428</t>
-  </si>
-  <si>
-    <t>5903473000827</t>
-  </si>
-  <si>
-    <t>5903473001183</t>
-  </si>
-  <si>
-    <t>5903473007048</t>
-  </si>
-  <si>
-    <t>5903473001206</t>
-  </si>
-  <si>
-    <t>5903473000896</t>
-  </si>
-  <si>
-    <t>Фп Дуб кора 20х1,5г</t>
-  </si>
-  <si>
-    <t>4601498005872</t>
-  </si>
-  <si>
-    <t>Фп "ФармаЦветик® Фиточай для кормящих мам" 20х1,5 г</t>
-  </si>
-  <si>
-    <t>4601498007500</t>
-  </si>
-  <si>
-    <t>НФП</t>
-  </si>
-  <si>
-    <t>Аир корневища НФП</t>
-  </si>
-  <si>
-    <t>Алтей корни НФП</t>
-  </si>
-  <si>
-    <t>Лекарств. продукция (моно), пачка</t>
-  </si>
-  <si>
-    <t>Лекарств. продукция (сборы), пачка</t>
-  </si>
-  <si>
-    <t>Багульник болотный побеги НФП</t>
-  </si>
-  <si>
-    <t>Березовые почки НФП</t>
-  </si>
-  <si>
-    <t>Бессмертник песчаный цветки НФП</t>
-  </si>
-  <si>
-    <t>Боярышник плоды НФП</t>
-  </si>
-  <si>
-    <t>Брусника листья НФП</t>
-  </si>
-  <si>
-    <t>Валериана корневища с корнями НФП</t>
-  </si>
-  <si>
-    <t>Девясил корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Дуб кора НФП</t>
-  </si>
-  <si>
-    <t>Зверобой трава НФП</t>
-  </si>
-  <si>
-    <t>Крапива листья НФП</t>
-  </si>
-  <si>
-    <t>Крушина кора НФП</t>
-  </si>
-  <si>
-    <t>Кукуруза столбики с рыльцами НФП</t>
-  </si>
-  <si>
-    <t>Морская капуста (ламинарии слоевища) НФП</t>
-  </si>
-  <si>
-    <t>Лен семена НФП</t>
-  </si>
-  <si>
-    <t>Липа цветки НФП</t>
-  </si>
-  <si>
-    <t>Мать-и-мачеха листья НФП</t>
-  </si>
-  <si>
-    <t>Можжевельник плоды НФП</t>
-  </si>
-  <si>
-    <t>Мята перечная листья НФП</t>
-  </si>
-  <si>
-    <t>Ноготки цветки НФП</t>
-  </si>
-  <si>
-    <t>Пижма цветки НФП</t>
-  </si>
-  <si>
-    <t>Подорожник большой листья НФП</t>
-  </si>
-  <si>
-    <t>Полынь горькая трава НФП</t>
-  </si>
-  <si>
-    <t>Пустырник трава НФП</t>
-  </si>
-  <si>
-    <t>Ромашка цветки НФП</t>
-  </si>
-  <si>
-    <t>Рябина плоды НФП</t>
-  </si>
-  <si>
-    <t>Сбор Грудной №4 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №2 (Желчегонный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитопектол №1 (Грудной сбор №1) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитопектол №2 (Грудной сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Сенна листья НФП</t>
-  </si>
-  <si>
-    <t>Солодка корни НФП</t>
-  </si>
-  <si>
-    <t>Горец птичий (спорыш) трава НФП</t>
-  </si>
-  <si>
-    <t>Толокнянка листья НФП</t>
-  </si>
-  <si>
-    <t>Тысячелистник трава НФП</t>
-  </si>
-  <si>
-    <t>Укроп пахучий плоды НФП</t>
-  </si>
-  <si>
-    <t>Чабрец трава НФП</t>
-  </si>
-  <si>
-    <t>Чага НФП</t>
-  </si>
-  <si>
-    <t>Череда трава НФП</t>
-  </si>
-  <si>
-    <t>Чистотел трава НФП</t>
-  </si>
-  <si>
-    <t>Шалфей листья НФП</t>
-  </si>
-  <si>
-    <t>Шиповник оболочки плодов НФП</t>
-  </si>
-  <si>
-    <t>Эвкалипт прутовидный листья НФП</t>
-  </si>
-  <si>
-    <t>Эрва шерстистая трава НФП</t>
-  </si>
-  <si>
-    <t>Целевое назначение</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем НФП</t>
-  </si>
-  <si>
-    <t>ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем НФП</t>
-  </si>
-  <si>
-    <t>ФармаЦветик Чай для кормящих мам НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик при простуде" НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для животика" НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для иммунитета" НФП</t>
-  </si>
-  <si>
-    <t>Детский травяной чай "ФармаЦветик для спокойного сна" НФП</t>
-  </si>
-  <si>
-    <t>Фиточай Лактафитол НФП</t>
-  </si>
-  <si>
-    <t>Лекарств. продукция (моно), ф/п</t>
-  </si>
-  <si>
-    <t>Бадан корневища НФП</t>
-  </si>
-  <si>
-    <t>Береза листья НФП</t>
-  </si>
-  <si>
-    <t>Пищевая продукция (сборы), ф/п</t>
-  </si>
-  <si>
-    <t>Лекарств. продукция (сборы), ф/п</t>
-  </si>
-  <si>
-    <t>ВердиоГаст®</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай диабетический НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для иммунитета НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай кардиологический НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай очищающий НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай при простуде НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай успокоительный НФП</t>
-  </si>
-  <si>
-    <t>Щедрость природы Фиточай для пищеварения НФП</t>
-  </si>
-  <si>
-    <t>Душица трава НФП</t>
-  </si>
-  <si>
-    <t>Золототысячник трава НФП</t>
-  </si>
-  <si>
-    <t>Кровохлебка корневища и корни НФП</t>
-  </si>
-  <si>
-    <t>Лапчатка прямостоячая корневища НФП</t>
-  </si>
-  <si>
-    <t>Мелисса лекарственная трава НФП</t>
-  </si>
-  <si>
-    <t>Ольха соплодия НФП</t>
-  </si>
-  <si>
-    <t>Пастушья сумка трава НФП</t>
-  </si>
-  <si>
-    <t>Ортосифон тычиночный (Почечный чай) листья НФП</t>
-  </si>
-  <si>
-    <t>Сбор Арфазетин-Э НФП</t>
-  </si>
-  <si>
-    <t>Сбор Бруснивер НФП</t>
-  </si>
-  <si>
-    <t>Сбор Проктофитол (Противогеморроидальный сбор) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогастрол (Желудочно-кишечный сбор) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитогепатол №3 (Желчегонный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитонефрол (Урологический сбор) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Желудочный №3 НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №3 (Успокоительный сбор №3) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Фитоседан №2 (Успокоительный сбор №2) НФП</t>
-  </si>
-  <si>
-    <t>Сбор Элекасол НФП</t>
-  </si>
-  <si>
-    <t>Фиалка трехцветная трава НФП</t>
-  </si>
-  <si>
-    <t>Хвощ полевой трава НФП</t>
-  </si>
-  <si>
-    <t>Шиповник плоды НФП</t>
-  </si>
-  <si>
-    <t>Стоматофит</t>
-  </si>
-  <si>
-    <t>Стоматофит А</t>
-  </si>
-  <si>
-    <t>Стоматофит эксперт</t>
-  </si>
-  <si>
-    <t>Бронхофитол</t>
-  </si>
-  <si>
-    <t>Масса</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1879,52 +1893,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1935,22 +1950,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1961,22 +1976,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1987,22 +2002,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2013,22 +2028,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2039,22 +2054,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2065,22 +2080,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2091,22 +2106,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2117,50 +2132,50 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>340</v>
       </c>
       <c r="B10" s="1">
         <v>10.5</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="B11" s="1">
         <v>50</v>
@@ -2169,24 +2184,24 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>75</v>
@@ -2195,24 +2210,24 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>50</v>
@@ -2221,24 +2236,24 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>50</v>
@@ -2247,24 +2262,24 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1">
         <v>50</v>
@@ -2273,24 +2288,24 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>40</v>
@@ -2299,24 +2314,24 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>100</v>
@@ -2325,24 +2340,24 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>100</v>
@@ -2351,24 +2366,24 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -2377,24 +2392,24 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>35</v>
@@ -2403,24 +2418,24 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>50</v>
@@ -2429,24 +2444,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
         <v>50</v>
@@ -2455,24 +2470,24 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
         <v>50</v>
@@ -2481,24 +2496,24 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
         <v>75</v>
@@ -2507,24 +2522,24 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>50</v>
@@ -2533,24 +2548,24 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
         <v>50</v>
@@ -2559,24 +2574,24 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
         <v>50</v>
@@ -2585,24 +2600,24 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
         <v>50</v>
@@ -2611,24 +2626,24 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
         <v>50</v>
@@ -2637,24 +2652,24 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>50</v>
@@ -2663,24 +2678,24 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>35</v>
@@ -2689,24 +2704,24 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
         <v>35</v>
@@ -2715,24 +2730,24 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>35</v>
@@ -2741,24 +2756,24 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>50</v>
@@ -2767,24 +2782,24 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>50</v>
@@ -2793,24 +2808,24 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
         <v>50</v>
@@ -2819,24 +2834,24 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>50</v>
@@ -2845,24 +2860,24 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>50</v>
@@ -2871,24 +2886,24 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>50</v>
@@ -2897,1636 +2912,1636 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="B41" s="1">
         <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B42" s="1">
         <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>40</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="B44" s="1">
         <v>40</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1">
         <v>40</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1">
         <v>40</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1">
         <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1">
         <v>40</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1">
         <v>40</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1">
         <v>30</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1">
         <v>30</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="B52" s="1">
         <v>30</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="1">
         <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="1">
         <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="1">
         <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B56" s="1">
         <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57" s="1">
         <v>30</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" s="1">
         <v>30</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B59" s="1">
         <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B61" s="1">
         <v>30</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1">
         <v>30</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1">
         <v>30</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1">
         <v>30</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1">
         <v>30</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1">
         <v>30</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1">
         <v>30</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1">
         <v>50</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1">
         <v>30</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1">
         <v>30</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1">
         <v>30</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1">
         <v>30</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1">
         <v>30</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1">
         <v>30</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1">
         <v>30</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1">
         <v>30</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1">
         <v>30</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1">
         <v>30</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1">
         <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1">
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1">
         <v>40</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1">
         <v>40</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1">
         <v>40</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B85" s="1">
         <v>40</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B86" s="1">
         <v>40</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B87" s="1">
         <v>40</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
         <v>40</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89" s="1">
         <v>40</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="1">
         <v>40</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91" s="1">
         <v>30</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B92" s="1">
         <v>30</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1">
         <v>30</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="1">
         <v>30</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B95" s="1">
         <v>30</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B96" s="1">
         <v>30</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B97" s="1">
         <v>30</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B98" s="1">
         <v>30</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B99" s="1">
         <v>30</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B100" s="1">
         <v>30</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B101" s="1">
         <v>40</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B102" s="1">
         <v>50</v>
@@ -4535,24 +4550,24 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B103" s="1">
         <v>50</v>
@@ -4561,24 +4576,24 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B104" s="1">
         <v>50</v>
@@ -4587,24 +4602,24 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B105" s="1">
         <v>50</v>
@@ -4613,24 +4628,24 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B106" s="1">
         <v>50</v>
@@ -4639,24 +4654,24 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B107" s="1">
         <v>50</v>
@@ -4665,24 +4680,24 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="1">
         <v>75</v>
@@ -4691,24 +4706,24 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B109" s="1">
         <v>30</v>
@@ -4717,153 +4732,153 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B110" s="1">
         <v>100</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B111" s="1">
         <v>50</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B112" s="1">
         <v>25</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B113" s="1">
         <v>50</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B114" s="1">
         <v>100</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E114"/>
+  <autoFilter ref="A1:E114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B1E685-8B62-744C-8158-401269E3ABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$E$114</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -212,9 +211,6 @@
     <t>Фп Девясил корневища и корни 20х1,5г</t>
   </si>
   <si>
-    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5 г</t>
   </si>
   <si>
@@ -1058,13 +1054,16 @@
     <t>Масса</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1893,53 +1892,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,22 +1949,22 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1976,22 +1975,22 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2002,22 +2001,22 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2028,22 +2027,22 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2054,22 +2053,22 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2080,22 +2079,22 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2106,22 +2105,22 @@
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2132,24 +2131,24 @@
         <v>1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="1">
         <v>10.5</v>
@@ -2158,22 +2157,22 @@
         <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2184,22 +2183,22 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2210,22 +2209,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2236,22 +2235,22 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2262,22 +2261,22 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2288,22 +2287,22 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2314,22 +2313,22 @@
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2340,22 +2339,22 @@
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2366,22 +2365,22 @@
         <v>1</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2392,22 +2391,22 @@
         <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2418,22 +2417,22 @@
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2444,22 +2443,22 @@
         <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2470,22 +2469,22 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2496,22 +2495,22 @@
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2522,22 +2521,22 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2548,22 +2547,22 @@
         <v>1</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2574,22 +2573,22 @@
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2600,22 +2599,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2626,22 +2625,22 @@
         <v>1</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2652,22 +2651,22 @@
         <v>1</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2678,22 +2677,22 @@
         <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2704,22 +2703,22 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2730,22 +2729,22 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2756,22 +2755,22 @@
         <v>1</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2782,22 +2781,22 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2808,22 +2807,22 @@
         <v>1</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2834,22 +2833,22 @@
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2860,22 +2859,22 @@
         <v>1</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2886,22 +2885,22 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2912,22 +2911,22 @@
         <v>1</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2938,22 +2937,22 @@
         <v>40</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2964,24 +2963,24 @@
         <v>40</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B42" s="1">
         <v>30</v>
@@ -2990,22 +2989,22 @@
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3016,22 +3015,22 @@
         <v>43</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -3042,22 +3041,22 @@
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3068,22 +3067,22 @@
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3094,22 +3093,22 @@
         <v>43</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3120,22 +3119,22 @@
         <v>43</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -3146,22 +3145,22 @@
         <v>43</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -3172,22 +3171,22 @@
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,22 +3197,22 @@
         <v>43</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -3224,22 +3223,22 @@
         <v>52</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -3250,22 +3249,22 @@
         <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,22 +3275,22 @@
         <v>43</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3302,22 +3301,22 @@
         <v>43</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3328,22 +3327,22 @@
         <v>52</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3354,24 +3353,24 @@
         <v>52</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>340</v>
       </c>
       <c r="B57" s="1">
         <v>30</v>
@@ -3380,24 +3379,24 @@
         <v>40</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B58" s="1">
         <v>30</v>
@@ -3406,24 +3405,24 @@
         <v>40</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1">
         <v>30</v>
@@ -3432,24 +3431,24 @@
         <v>40</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1">
         <v>30</v>
@@ -3458,24 +3457,24 @@
         <v>40</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="1">
         <v>30</v>
@@ -3484,24 +3483,24 @@
         <v>52</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>30</v>
@@ -3510,24 +3509,24 @@
         <v>43</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
         <v>30</v>
@@ -3536,24 +3535,24 @@
         <v>43</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
         <v>30</v>
@@ -3562,24 +3561,24 @@
         <v>43</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>30</v>
@@ -3588,24 +3587,24 @@
         <v>43</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>30</v>
@@ -3614,24 +3613,24 @@
         <v>52</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>30</v>
@@ -3640,24 +3639,24 @@
         <v>52</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>50</v>
@@ -3666,24 +3665,24 @@
         <v>52</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
         <v>30</v>
@@ -3692,24 +3691,24 @@
         <v>43</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>30</v>
@@ -3718,24 +3717,24 @@
         <v>43</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>30</v>
@@ -3744,24 +3743,24 @@
         <v>43</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>30</v>
@@ -3770,24 +3769,24 @@
         <v>52</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
         <v>30</v>
@@ -3796,24 +3795,24 @@
         <v>43</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>30</v>
@@ -3822,24 +3821,24 @@
         <v>43</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
         <v>30</v>
@@ -3848,24 +3847,24 @@
         <v>43</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>30</v>
@@ -3874,24 +3873,24 @@
         <v>43</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1">
         <v>30</v>
@@ -3900,24 +3899,24 @@
         <v>52</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1">
         <v>30</v>
@@ -3926,24 +3925,24 @@
         <v>43</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1">
         <v>30</v>
@@ -3952,24 +3951,24 @@
         <v>43</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1">
         <v>40</v>
@@ -3978,24 +3977,24 @@
         <v>43</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1">
         <v>40</v>
@@ -4004,24 +4003,24 @@
         <v>43</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1">
         <v>40</v>
@@ -4030,24 +4029,24 @@
         <v>43</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1">
         <v>40</v>
@@ -4056,24 +4055,24 @@
         <v>43</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1">
         <v>40</v>
@@ -4082,24 +4081,24 @@
         <v>43</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1">
         <v>40</v>
@@ -4108,24 +4107,24 @@
         <v>43</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1">
         <v>40</v>
@@ -4134,24 +4133,24 @@
         <v>43</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1">
         <v>40</v>
@@ -4160,24 +4159,24 @@
         <v>43</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1">
         <v>40</v>
@@ -4186,24 +4185,24 @@
         <v>43</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1">
         <v>40</v>
@@ -4212,24 +4211,24 @@
         <v>43</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1">
         <v>40</v>
@@ -4238,24 +4237,24 @@
         <v>43</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1">
         <v>30</v>
@@ -4264,24 +4263,24 @@
         <v>43</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1">
         <v>30</v>
@@ -4290,24 +4289,24 @@
         <v>43</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1">
         <v>30</v>
@@ -4316,24 +4315,24 @@
         <v>52</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1">
         <v>30</v>
@@ -4342,24 +4341,24 @@
         <v>43</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1">
         <v>30</v>
@@ -4368,24 +4367,24 @@
         <v>40</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1">
         <v>30</v>
@@ -4394,24 +4393,24 @@
         <v>43</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1">
         <v>30</v>
@@ -4420,24 +4419,24 @@
         <v>43</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1">
         <v>30</v>
@@ -4446,24 +4445,24 @@
         <v>43</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1">
         <v>30</v>
@@ -4472,24 +4471,24 @@
         <v>43</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1">
         <v>30</v>
@@ -4498,24 +4497,24 @@
         <v>43</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1">
         <v>40</v>
@@ -4524,24 +4523,24 @@
         <v>43</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1">
         <v>50</v>
@@ -4550,24 +4549,24 @@
         <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1">
         <v>50</v>
@@ -4576,24 +4575,24 @@
         <v>1</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1">
         <v>50</v>
@@ -4602,24 +4601,24 @@
         <v>1</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1">
         <v>50</v>
@@ -4628,24 +4627,24 @@
         <v>1</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1">
         <v>50</v>
@@ -4654,24 +4653,24 @@
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1">
         <v>50</v>
@@ -4680,24 +4679,24 @@
         <v>1</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1">
         <v>75</v>
@@ -4706,24 +4705,24 @@
         <v>1</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1">
         <v>30</v>
@@ -4732,153 +4731,154 @@
         <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1">
         <v>100</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1">
         <v>50</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1">
         <v>25</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1">
         <v>50</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1">
         <v>100</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1054,10 +1054,10 @@
     <t>Масса</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
-  </si>
-  <si>
-    <t>Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5 г</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+  </si>
+  <si>
+    <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
 </sst>
 </file>
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1895,8 +1895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3076,7 +3076,7 @@
         <v>130</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>303</v>
@@ -3102,7 +3102,7 @@
         <v>131</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>303</v>
@@ -3128,7 +3128,7 @@
         <v>132</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>303</v>
@@ -3154,7 +3154,7 @@
         <v>133</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>303</v>
@@ -3180,7 +3180,7 @@
         <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>303</v>
@@ -3492,7 +3492,7 @@
         <v>240</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>300</v>
@@ -3518,7 +3518,7 @@
         <v>186</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>255</v>
+        <v>313</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>300</v>
@@ -3544,7 +3544,7 @@
         <v>187</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>300</v>
@@ -3570,7 +3570,7 @@
         <v>188</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>256</v>
+        <v>314</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>300</v>
@@ -3596,7 +3596,7 @@
         <v>189</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>300</v>
@@ -3622,7 +3622,7 @@
         <v>190</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>258</v>
+        <v>315</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>300</v>
@@ -3648,7 +3648,7 @@
         <v>191</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>300</v>
@@ -3830,7 +3830,7 @@
         <v>198</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>300</v>
@@ -3856,7 +3856,7 @@
         <v>199</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>300</v>
@@ -4012,7 +4012,7 @@
         <v>205</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>273</v>
+        <v>322</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>304</v>
@@ -4038,7 +4038,7 @@
         <v>206</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>322</v>
+        <v>273</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>304</v>
@@ -4064,7 +4064,7 @@
         <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>304</v>
@@ -4090,7 +4090,7 @@
         <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>304</v>
@@ -4116,7 +4116,7 @@
         <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>304</v>
@@ -4194,7 +4194,7 @@
         <v>212</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>304</v>
@@ -4220,7 +4220,7 @@
         <v>213</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>304</v>
@@ -4246,7 +4246,7 @@
         <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>304</v>
@@ -4272,7 +4272,7 @@
         <v>215</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>330</v>
+        <v>277</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>300</v>
@@ -4298,7 +4298,7 @@
         <v>216</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>300</v>
@@ -4324,7 +4324,7 @@
         <v>217</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>300</v>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8F97C-9602-1449-B366-3D407F89436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17445"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -18,19 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$E$114</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1054,16 +1042,16 @@
     <t>Масса</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
-  </si>
-  <si>
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1892,27 +1880,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="4" max="4" width="18.1640625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="9" max="9" width="68.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1938,7 +1926,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1964,7 +1952,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1990,7 +1978,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2016,7 +2004,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2042,7 +2030,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2068,7 +2056,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2094,7 +2082,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2120,7 +2108,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2146,9 +2134,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B10" s="1">
         <v>10.5</v>
@@ -2172,7 +2160,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2198,7 +2186,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2224,7 +2212,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2250,7 +2238,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2276,7 +2264,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2302,7 +2290,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2328,7 +2316,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2354,7 +2342,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2380,7 +2368,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2406,7 +2394,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2458,7 +2446,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2484,7 +2472,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2510,7 +2498,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2536,7 +2524,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2562,7 +2550,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2588,7 +2576,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2614,7 +2602,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2640,7 +2628,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2666,7 +2654,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2692,7 +2680,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2718,7 +2706,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2744,7 +2732,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2770,7 +2758,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2796,7 +2784,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2822,7 +2810,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2848,7 +2836,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2874,7 +2862,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2900,7 +2888,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2926,7 +2914,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2952,7 +2940,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2978,7 +2966,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>241</v>
       </c>
@@ -3004,7 +2992,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3030,7 +3018,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -3056,7 +3044,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3082,7 +3070,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3108,7 +3096,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3134,7 +3122,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -3160,7 +3148,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -3186,7 +3174,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -3212,7 +3200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -3238,7 +3226,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -3264,7 +3252,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3290,7 +3278,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3316,7 +3304,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3342,7 +3330,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3368,9 +3356,9 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B57" s="1">
         <v>30</v>
@@ -3394,7 +3382,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -3420,7 +3408,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3446,7 +3434,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -3472,7 +3460,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>239</v>
       </c>
@@ -3498,7 +3486,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3524,7 +3512,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,7 +3538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3576,7 +3564,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3602,7 +3590,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3628,7 +3616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3654,7 +3642,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3680,7 +3668,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3706,7 +3694,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3720,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3758,7 +3746,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3784,7 +3772,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3810,7 +3798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3836,7 +3824,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3862,7 +3850,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3888,7 +3876,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3914,7 +3902,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3940,7 +3928,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3966,7 +3954,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3992,7 +3980,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -4018,7 +4006,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -4044,7 +4032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -4070,7 +4058,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -4096,7 +4084,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -4122,7 +4110,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -4148,7 +4136,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -4174,7 +4162,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -4200,7 +4188,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -4226,7 +4214,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -4252,7 +4240,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4278,7 +4266,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -4304,7 +4292,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4330,7 +4318,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4356,7 +4344,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4382,7 +4370,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4408,7 +4396,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4434,7 +4422,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4460,7 +4448,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4486,7 +4474,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4512,7 +4500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4538,7 +4526,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4564,7 +4552,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4590,7 +4578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4616,7 +4604,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4642,7 +4630,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4668,7 +4656,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4694,7 +4682,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4720,7 +4708,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4746,7 +4734,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4772,7 +4760,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4798,7 +4786,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4824,7 +4812,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4850,7 +4838,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4877,7 +4865,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E114"/>
+  <autoFilter ref="A1:E114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A8F97C-9602-1449-B366-3D407F89436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B044987-2F7C-6A4C-844B-900F15BA984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,7 +1045,7 @@
     <t>Фп Детский травяной чай "ФармаЦветик®  при простуде" 20х1,5 г</t>
   </si>
   <si>
-    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ), капсулы</t>
+    <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
   </si>
 </sst>
 </file>
@@ -1884,7 +1884,7 @@
   <dimension ref="A1:H114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11207"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreykozinov/Documents/Work/Pycharm Projects/StockAnalysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\KLS\Production\Planning\ПЛАНИРОВАНИЕ ПРОИЗВОДСТВА\Andrey\Месячное планирование\StockAnalysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B044987-2F7C-6A4C-844B-900F15BA984A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="30240" windowHeight="17445"/>
   </bookViews>
   <sheets>
     <sheet name="Result 1" sheetId="1" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="450">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -1046,13 +1045,340 @@
   </si>
   <si>
     <t>ВердиоГаст® Растительный комплекс для улучшения пищеварения (БАД ),  капсулы</t>
+  </si>
+  <si>
+    <t>Печатный материал</t>
+  </si>
+  <si>
+    <t>Б-6М Аир корневища 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Алтей корни 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Багульник болотный побеги 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Береза почки 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Бессмертник песчаный цветки 30г</t>
+  </si>
+  <si>
+    <t>Б-6М Боярышник плоды 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Брусника листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Валериана корневища с корнями 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Девясил корневища и корни 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Дуба кора 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Зверобой трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Крапива листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Крушина кора 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Кукуруза столбики с рыльцами 40г</t>
+  </si>
+  <si>
+    <t>Б-6М Ламинарии слоевища 100г</t>
+  </si>
+  <si>
+    <t>Б-6М Лен семена 100г</t>
+  </si>
+  <si>
+    <t>Б-6М Липа цветки 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Мать-и-мачеха листья 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Можжевельник плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Мята перечная листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Ноготки цветки 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пижма цветки 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Подорожник большой листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Полынь горькая трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Пустырник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Ромашка цветки вн 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Рябина плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Грудной №4 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитогепатол №2 (Желчегонный сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №1 (Грудной сбор №1) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сб. Фитопектол №2 (Грудной сбор №2) 35г</t>
+  </si>
+  <si>
+    <t>Б-6М Сенна листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Солодка корни 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Толокнянка листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Тысячелистник трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Укроп пахучий плоды 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Горца птичьего (cпорыша) трава 50г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с зеленым чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп "ВердиоГаст® Фиточай для улучшения пищеварения с черным чаем" 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "ФармаЦветик® для кормящих мам"20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай диабетический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для иммунитета" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай для пищеварения" 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай кардиологический" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай очищающий" 20х2,0 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп "Щедрость природы Фиточай при простуде" 20х2,0 г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">П-8 Фп "Щедрость природы Фиточай успокоительный"20х2,0 г </t>
+  </si>
+  <si>
+    <t>П-8 Фп Аир корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Бадан корневища 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Береза листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Боярышник плоды 20х3,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Брусника листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Валериана корневища с корнями 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Девясил корни и корневища 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® при простуде" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для животика" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для иммунитета" 20х1,5г.</t>
+  </si>
+  <si>
+    <t>П-6К Фп Детский травяной чай "ФармаЦветик® для спокойного сна" 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Дуб кора (РПС) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Душица трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Зверобой трава (порошок С РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Золототысячник трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Крапива листья (порошок С РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Кровохлебка корневища и корни 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Крушина кора 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Лапчатка корневища 20х2,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Липа цветки 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Мелисса лекарственная трава 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Мята перечная листья 20x1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ноготки цветки 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ольхи соплодия  20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пастушья сумка 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пижма цветки 20х1.5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Подорожник листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Почечный чай листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Пустырник трава (порошок с РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Ромашка цветки (порошок с РПС) 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Арфазетин-Э 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Бруснивер 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Грудной №4 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Желудочный №3 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Проктофитол (Противогеморроидальный сбор) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогастрол (Желудочно-кишечный сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитогепатол №3 (Желчегонный сбор №3) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитонефрол (Урологический сбор) 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №2 (Успокоительный сбор №2) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Фитоседан №3 (Успокоительный сбор №3) 20х2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сб. Элекасол 20x2,0г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Сенна листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Толокнянка листья 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Тысячелистник трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Фиалка трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-6К Фп Фиточай "Лактафитол" (БАД) 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Хвощ трава 20х1,5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Чабрец трава (РПС) 20х1.5 г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Череда трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Чистотел трава 20х1,5г</t>
+  </si>
+  <si>
+    <t>П-8 Фп Шалфей листья 20х1,5г, шт</t>
+  </si>
+  <si>
+    <t>П-8 Фп Шиповник плоды 20х2,0г</t>
+  </si>
+  <si>
+    <t>Б-6М Чабрец трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чага (березовый гриб) 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Череда трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Чистотел трава 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Шалфей листья 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Шиповник плоды низковитаминные 50г</t>
+  </si>
+  <si>
+    <t>Б-6М Эвкалипт прутовидный листья 75г</t>
+  </si>
+  <si>
+    <t>Б-6М Эрва шерстистая трава 30г</t>
+  </si>
+  <si>
+    <t>К-30 "ВердиоГаст® Растительный комплекс для улучшения пищеварения"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,6 +1535,11 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1880,27 +2211,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="97.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="18.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.1640625" customWidth="1"/>
-    <col min="7" max="7" width="69.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" customWidth="1"/>
-    <col min="9" max="9" width="68.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1925,8 +2256,11 @@
       <c r="H1" s="1" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1951,8 +2285,11 @@
       <c r="H2" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1977,8 +2314,11 @@
       <c r="H3" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2003,8 +2343,11 @@
       <c r="H4" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2029,8 +2372,11 @@
       <c r="H5" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2055,8 +2401,11 @@
       <c r="H6" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2081,8 +2430,11 @@
       <c r="H7" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2107,8 +2459,11 @@
       <c r="H8" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2133,8 +2488,11 @@
       <c r="H9" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>340</v>
       </c>
@@ -2159,8 +2517,11 @@
       <c r="H10" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2185,8 +2546,11 @@
       <c r="H11" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2211,8 +2575,11 @@
       <c r="H12" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2237,8 +2604,11 @@
       <c r="H13" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2263,8 +2633,11 @@
       <c r="H14" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2289,8 +2662,11 @@
       <c r="H15" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2315,8 +2691,11 @@
       <c r="H16" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2341,8 +2720,11 @@
       <c r="H17" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2367,8 +2749,11 @@
       <c r="H18" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2393,8 +2778,11 @@
       <c r="H19" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2419,8 +2807,11 @@
       <c r="H20" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2445,8 +2836,11 @@
       <c r="H21" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2471,8 +2865,11 @@
       <c r="H22" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2497,8 +2894,11 @@
       <c r="H23" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2523,8 +2923,11 @@
       <c r="H24" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2549,8 +2952,11 @@
       <c r="H25" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2575,8 +2981,11 @@
       <c r="H26" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2601,8 +3010,11 @@
       <c r="H27" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2627,8 +3039,11 @@
       <c r="H28" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2653,8 +3068,11 @@
       <c r="H29" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2679,8 +3097,11 @@
       <c r="H30" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2705,8 +3126,11 @@
       <c r="H31" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2731,8 +3155,11 @@
       <c r="H32" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2757,8 +3184,11 @@
       <c r="H33" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2783,8 +3213,11 @@
       <c r="H34" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2809,8 +3242,11 @@
       <c r="H35" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2835,8 +3271,11 @@
       <c r="H36" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2861,8 +3300,11 @@
       <c r="H37" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2887,8 +3329,11 @@
       <c r="H38" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2913,8 +3358,11 @@
       <c r="H39" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2939,8 +3387,11 @@
       <c r="H40" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
@@ -2965,8 +3416,11 @@
       <c r="H41" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>241</v>
       </c>
@@ -2991,8 +3445,11 @@
       <c r="H42" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3017,8 +3474,11 @@
       <c r="H43" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
@@ -3043,8 +3503,11 @@
       <c r="H44" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
@@ -3069,8 +3532,11 @@
       <c r="H45" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -3095,8 +3561,11 @@
       <c r="H46" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3121,8 +3590,11 @@
       <c r="H47" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
@@ -3147,8 +3619,11 @@
       <c r="H48" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
@@ -3173,8 +3648,11 @@
       <c r="H49" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
@@ -3199,8 +3677,11 @@
       <c r="H50" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
@@ -3225,8 +3706,11 @@
       <c r="H51" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>53</v>
       </c>
@@ -3251,8 +3735,11 @@
       <c r="H52" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,8 +3764,11 @@
       <c r="H53" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>55</v>
       </c>
@@ -3303,8 +3793,11 @@
       <c r="H54" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>56</v>
       </c>
@@ -3329,8 +3822,11 @@
       <c r="H55" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>57</v>
       </c>
@@ -3355,8 +3851,11 @@
       <c r="H56" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>339</v>
       </c>
@@ -3381,8 +3880,11 @@
       <c r="H57" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
@@ -3407,8 +3909,11 @@
       <c r="H58" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
@@ -3433,8 +3938,11 @@
       <c r="H59" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
@@ -3459,8 +3967,11 @@
       <c r="H60" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>239</v>
       </c>
@@ -3485,8 +3996,11 @@
       <c r="H61" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61" s="3" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3511,8 +4025,11 @@
       <c r="H62" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3537,8 +4054,11 @@
       <c r="H63" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3563,8 +4083,11 @@
       <c r="H64" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3589,8 +4112,11 @@
       <c r="H65" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3615,8 +4141,11 @@
       <c r="H66" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3641,8 +4170,11 @@
       <c r="H67" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3667,8 +4199,11 @@
       <c r="H68" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3693,8 +4228,11 @@
       <c r="H69" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3719,8 +4257,11 @@
       <c r="H70" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3745,8 +4286,11 @@
       <c r="H71" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3771,8 +4315,11 @@
       <c r="H72" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3797,8 +4344,11 @@
       <c r="H73" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3823,8 +4373,11 @@
       <c r="H74" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3849,8 +4402,11 @@
       <c r="H75" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3875,8 +4431,11 @@
       <c r="H76" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3901,8 +4460,11 @@
       <c r="H77" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3927,8 +4489,11 @@
       <c r="H78" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78" s="1" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3953,8 +4518,11 @@
       <c r="H79" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3979,8 +4547,11 @@
       <c r="H80" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -4005,8 +4576,11 @@
       <c r="H81" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -4031,8 +4605,11 @@
       <c r="H82" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -4057,8 +4634,11 @@
       <c r="H83" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -4083,8 +4663,11 @@
       <c r="H84" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84" s="1" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -4109,8 +4692,11 @@
       <c r="H85" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -4135,8 +4721,11 @@
       <c r="H86" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86" s="1" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -4161,8 +4750,11 @@
       <c r="H87" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -4187,8 +4779,11 @@
       <c r="H88" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -4213,8 +4808,11 @@
       <c r="H89" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -4239,8 +4837,11 @@
       <c r="H90" s="1" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4265,8 +4866,11 @@
       <c r="H91" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -4291,8 +4895,11 @@
       <c r="H92" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4317,8 +4924,11 @@
       <c r="H93" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4343,8 +4953,11 @@
       <c r="H94" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4369,8 +4982,11 @@
       <c r="H95" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4395,8 +5011,11 @@
       <c r="H96" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4421,8 +5040,11 @@
       <c r="H97" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4447,8 +5069,11 @@
       <c r="H98" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4473,8 +5098,11 @@
       <c r="H99" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4499,8 +5127,11 @@
       <c r="H100" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4525,8 +5156,11 @@
       <c r="H101" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I101" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4551,8 +5185,11 @@
       <c r="H102" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I102" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4577,8 +5214,11 @@
       <c r="H103" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I103" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4603,8 +5243,11 @@
       <c r="H104" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I104" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4629,8 +5272,11 @@
       <c r="H105" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I105" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4655,8 +5301,11 @@
       <c r="H106" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I106" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4681,8 +5330,11 @@
       <c r="H107" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I107" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4707,8 +5359,11 @@
       <c r="H108" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I108" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4733,8 +5388,11 @@
       <c r="H109" s="1" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I109" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4759,8 +5417,9 @@
       <c r="H110" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I110" s="1"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4785,8 +5444,9 @@
       <c r="H111" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I111" s="1"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4811,8 +5471,9 @@
       <c r="H112" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I112" s="1"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4837,8 +5498,9 @@
       <c r="H113" s="1" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I113" s="1"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4863,9 +5525,10 @@
       <c r="H114" s="1" t="s">
         <v>300</v>
       </c>
+      <c r="I114" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E114" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -888,9 +888,6 @@
     <t>Шалфей листья НФП</t>
   </si>
   <si>
-    <t>Шиповник оболочки плодов НФП</t>
-  </si>
-  <si>
     <t>Эвкалипт прутовидный листья НФП</t>
   </si>
   <si>
@@ -1372,6 +1369,9 @@
   </si>
   <si>
     <t>К-30 "ВердиоГаст® Растительный комплекс для улучшения пищеварения"</t>
+  </si>
+  <si>
+    <t>Шиповник плоды низковитаминные НФП</t>
   </si>
 </sst>
 </file>
@@ -2214,20 +2214,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="97.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="69.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="35.140625" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="69.42578125" customWidth="1"/>
+    <col min="8" max="8" width="35.140625" customWidth="1"/>
     <col min="9" max="9" width="75.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2236,7 +2236,7 @@
         <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>116</v>
@@ -2254,10 +2254,10 @@
         <v>243</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -2286,7 +2286,7 @@
         <v>246</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2315,7 +2315,7 @@
         <v>246</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2344,7 +2344,7 @@
         <v>246</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>246</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2402,7 +2402,7 @@
         <v>246</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2431,7 +2431,7 @@
         <v>246</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2460,7 +2460,7 @@
         <v>246</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2489,12 +2489,12 @@
         <v>246</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B10" s="1">
         <v>10.5</v>
@@ -2512,13 +2512,13 @@
         <v>147</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>246</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>246</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2605,7 +2605,7 @@
         <v>246</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,7 +2634,7 @@
         <v>246</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2663,7 +2663,7 @@
         <v>246</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>246</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2721,7 +2721,7 @@
         <v>246</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2750,7 +2750,7 @@
         <v>246</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2779,7 +2779,7 @@
         <v>246</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>246</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2837,7 +2837,7 @@
         <v>246</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2866,7 +2866,7 @@
         <v>246</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>246</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2924,7 +2924,7 @@
         <v>246</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>246</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2982,7 +2982,7 @@
         <v>246</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -3011,7 +3011,7 @@
         <v>246</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -3040,7 +3040,7 @@
         <v>246</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -3069,7 +3069,7 @@
         <v>246</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -3098,7 +3098,7 @@
         <v>247</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -3127,7 +3127,7 @@
         <v>247</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -3156,7 +3156,7 @@
         <v>247</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -3185,7 +3185,7 @@
         <v>247</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,7 +3214,7 @@
         <v>246</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>246</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -3272,7 +3272,7 @@
         <v>246</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -3301,7 +3301,7 @@
         <v>246</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -3330,7 +3330,7 @@
         <v>246</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
         <v>246</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -3382,13 +3382,13 @@
         <v>177</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -3411,13 +3411,13 @@
         <v>178</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -3440,13 +3440,13 @@
         <v>242</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,13 +3469,13 @@
         <v>128</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -3498,13 +3498,13 @@
         <v>129</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -3527,13 +3527,13 @@
         <v>130</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -3556,13 +3556,13 @@
         <v>131</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3585,13 +3585,13 @@
         <v>132</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3614,13 +3614,13 @@
         <v>133</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3643,13 +3643,13 @@
         <v>134</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3675,10 +3675,10 @@
         <v>244</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3701,13 +3701,13 @@
         <v>180</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,13 +3730,13 @@
         <v>181</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3762,10 +3762,10 @@
         <v>251</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3791,10 +3791,10 @@
         <v>252</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3820,10 +3820,10 @@
         <v>253</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3849,15 +3849,15 @@
         <v>254</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B57" s="1">
         <v>30</v>
@@ -3875,13 +3875,13 @@
         <v>135</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3904,13 +3904,13 @@
         <v>136</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3933,13 +3933,13 @@
         <v>137</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3962,13 +3962,13 @@
         <v>138</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3994,10 +3994,10 @@
         <v>255</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -4020,13 +4020,13 @@
         <v>186</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -4052,10 +4052,10 @@
         <v>256</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -4078,13 +4078,13 @@
         <v>188</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -4110,10 +4110,10 @@
         <v>257</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -4136,13 +4136,13 @@
         <v>190</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -4168,10 +4168,10 @@
         <v>258</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -4194,13 +4194,13 @@
         <v>192</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -4226,10 +4226,10 @@
         <v>262</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -4252,13 +4252,13 @@
         <v>194</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4284,10 +4284,10 @@
         <v>265</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -4313,10 +4313,10 @@
         <v>266</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -4339,13 +4339,13 @@
         <v>197</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4368,13 +4368,13 @@
         <v>198</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4400,10 +4400,10 @@
         <v>267</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4429,10 +4429,10 @@
         <v>268</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -4455,13 +4455,13 @@
         <v>201</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -4487,10 +4487,10 @@
         <v>270</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>271</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -4542,13 +4542,13 @@
         <v>204</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -4571,13 +4571,13 @@
         <v>205</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -4603,10 +4603,10 @@
         <v>273</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -4629,13 +4629,13 @@
         <v>207</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -4658,13 +4658,13 @@
         <v>208</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -4687,13 +4687,13 @@
         <v>209</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -4716,13 +4716,13 @@
         <v>210</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -4745,13 +4745,13 @@
         <v>211</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -4774,13 +4774,13 @@
         <v>212</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -4803,13 +4803,13 @@
         <v>213</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -4832,13 +4832,13 @@
         <v>214</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -4864,10 +4864,10 @@
         <v>277</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -4893,10 +4893,10 @@
         <v>280</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -4922,10 +4922,10 @@
         <v>281</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -4948,13 +4948,13 @@
         <v>218</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -4977,13 +4977,13 @@
         <v>219</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -5006,13 +5006,13 @@
         <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -5038,10 +5038,10 @@
         <v>283</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -5067,10 +5067,10 @@
         <v>285</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -5096,10 +5096,10 @@
         <v>286</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -5125,10 +5125,10 @@
         <v>287</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -5151,13 +5151,13 @@
         <v>225</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -5186,7 +5186,7 @@
         <v>246</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5215,7 +5215,7 @@
         <v>246</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -5244,7 +5244,7 @@
         <v>246</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
         <v>246</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5302,7 +5302,7 @@
         <v>246</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5325,13 +5325,13 @@
         <v>231</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>288</v>
+        <v>449</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5354,13 +5354,13 @@
         <v>232</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -5383,13 +5383,13 @@
         <v>233</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>246</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -5412,10 +5412,10 @@
         <v>234</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I110" s="1"/>
     </row>
@@ -5439,10 +5439,10 @@
         <v>235</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I111" s="1"/>
     </row>
@@ -5466,10 +5466,10 @@
         <v>236</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I112" s="1"/>
     </row>
@@ -5493,10 +5493,10 @@
         <v>237</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I113" s="1"/>
     </row>
@@ -5520,10 +5520,10 @@
         <v>238</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I114" s="1"/>
     </row>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="455">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -1372,6 +1372,21 @@
   </si>
   <si>
     <t>Шиповник плоды низковитаминные НФП</t>
+  </si>
+  <si>
+    <t>С-100 "Стоматофит 100мл"</t>
+  </si>
+  <si>
+    <t>С-50 "Стоматофит 50мл"</t>
+  </si>
+  <si>
+    <t>С-25 "Стоматофит А 25мл"</t>
+  </si>
+  <si>
+    <t>С-50Э "Стоматофит Эксперт 50мл"</t>
+  </si>
+  <si>
+    <t>Б-100 "Бронхофитол 100мл"</t>
   </si>
 </sst>
 </file>
@@ -2214,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B91" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5417,7 +5432,9 @@
       <c r="H110" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I110" s="1"/>
+      <c r="I110" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -5444,7 +5461,9 @@
       <c r="H111" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I111" s="1"/>
+      <c r="I111" s="1" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -5471,7 +5490,9 @@
       <c r="H112" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -5498,7 +5519,9 @@
       <c r="H113" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I113" s="1"/>
+      <c r="I113" s="1" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -5525,7 +5548,9 @@
       <c r="H114" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="I114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>454</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E114"/>

--- a/data/actual_items.xlsx
+++ b/data/actual_items.xlsx
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Result 1'!$A$1:$E$114</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="459">
   <si>
     <t>Аир корневища 75г</t>
   </si>
@@ -1387,13 +1387,25 @@
   </si>
   <si>
     <t>Б-100 "Бронхофитол 100мл"</t>
+  </si>
+  <si>
+    <t>НЮДА® средство педикулицидное 50 мл (флакон)</t>
+  </si>
+  <si>
+    <t>4029125060993</t>
+  </si>
+  <si>
+    <t>Н-50 "НЮДА® средство педикулицидное 50 мл (флакон)"</t>
+  </si>
+  <si>
+    <t>НЮДА</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1550,11 +1562,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2227,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B97" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5552,6 +5559,35 @@
         <v>454</v>
       </c>
     </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B115" s="1">
+        <v>50</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="I115" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E114"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
